--- a/data/hotels_by_city/Denver/Denver_shard_240.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_240.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d85366-Reviews-Rodeway_Inn-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Rodeway-Inn.h3090.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1523585308868&amp;regionId=178254&amp;vip=false&amp;c=0293a867-a6bf-4c63-a84e-a480800b1ad9&amp;mctc=9&amp;exp_dp=58.65&amp;exp_ts=1523585309531&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1706 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r591291418-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>85366</t>
+  </si>
+  <si>
+    <t>591291418</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Keep on Driving</t>
+  </si>
+  <si>
+    <t>It is located closely to I-70 having said that just keep on driving. When we arrived we were informed that our room was smoking. We have children and told them that would not work. The manager said he had another option for a "suite" however we could pay the difference in cash. At the same time the custodian/room worker was in the lobby area playing his rap music loudly. The manager stated that the entire areas hotels were booked and told us we could go look at 2 different suites and see them. First off, their were no other cars in the hotel park lot and then told us the 2 suites were located on the back side of the hotel. The parking lot was sketchy with empty alcohol bottles and other trash. Again, no cars or people on this side beside a random homeless person. The "Suites" were located on the top floor with access from the outside balcony. The screen window had been sliced with a knife and when we opened the room even without actually stepping foot inside it was apparent it was another smoking room room and way below average in condition. Second room the same. I had the feeling that it was actually not only a scam for the staff to make some extra money but also would have lead to a situation that later at night would not have been remotely safe. We left...It is located closely to I-70 having said that just keep on driving. When we arrived we were informed that our room was smoking. We have children and told them that would not work. The manager said he had another option for a "suite" however we could pay the difference in cash. At the same time the custodian/room worker was in the lobby area playing his rap music loudly. The manager stated that the entire areas hotels were booked and told us we could go look at 2 different suites and see them. First off, their were no other cars in the hotel park lot and then told us the 2 suites were located on the back side of the hotel. The parking lot was sketchy with empty alcohol bottles and other trash. Again, no cars or people on this side beside a random homeless person. The "Suites" were located on the top floor with access from the outside balcony. The screen window had been sliced with a knife and when we opened the room even without actually stepping foot inside it was apparent it was another smoking room room and way below average in condition. Second room the same. I had the feeling that it was actually not only a scam for the staff to make some extra money but also would have lead to a situation that later at night would not have been remotely safe. We left and contacted the booking agency immediately for a refund. This is hotel is far from clean and far from a safe place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>It is located closely to I-70 having said that just keep on driving. When we arrived we were informed that our room was smoking. We have children and told them that would not work. The manager said he had another option for a "suite" however we could pay the difference in cash. At the same time the custodian/room worker was in the lobby area playing his rap music loudly. The manager stated that the entire areas hotels were booked and told us we could go look at 2 different suites and see them. First off, their were no other cars in the hotel park lot and then told us the 2 suites were located on the back side of the hotel. The parking lot was sketchy with empty alcohol bottles and other trash. Again, no cars or people on this side beside a random homeless person. The "Suites" were located on the top floor with access from the outside balcony. The screen window had been sliced with a knife and when we opened the room even without actually stepping foot inside it was apparent it was another smoking room room and way below average in condition. Second room the same. I had the feeling that it was actually not only a scam for the staff to make some extra money but also would have lead to a situation that later at night would not have been remotely safe. We left...It is located closely to I-70 having said that just keep on driving. When we arrived we were informed that our room was smoking. We have children and told them that would not work. The manager said he had another option for a "suite" however we could pay the difference in cash. At the same time the custodian/room worker was in the lobby area playing his rap music loudly. The manager stated that the entire areas hotels were booked and told us we could go look at 2 different suites and see them. First off, their were no other cars in the hotel park lot and then told us the 2 suites were located on the back side of the hotel. The parking lot was sketchy with empty alcohol bottles and other trash. Again, no cars or people on this side beside a random homeless person. The "Suites" were located on the top floor with access from the outside balcony. The screen window had been sliced with a knife and when we opened the room even without actually stepping foot inside it was apparent it was another smoking room room and way below average in condition. Second room the same. I had the feeling that it was actually not only a scam for the staff to make some extra money but also would have lead to a situation that later at night would not have been remotely safe. We left and contacted the booking agency immediately for a refund. This is hotel is far from clean and far from a safe place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r576456355-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576456355</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Average, but fine for what it is</t>
+  </si>
+  <si>
+    <t>This hotel is definitely lower end, and at first I thought it was going to be sketch, but it turned out to be just fine. The locations is convenient -- just off of I-70 with quick and easy access to DEN airport (15 minutes) and the UC Health Complex. It's located in a very industrial area, so it's not glamorous, but it's fine for what it is and offers good value. The rooms are very spacious, especially if you get a room with a king bed. Parking is ample and the Wi-Fi worked well. The work desk in the room was huge, as was the sink area in the bathroom. There is a Denny's right across the parking lot where hotel guests get a 10% discount, and you can order take away food from there and basically get a room service experience if you are so inclined. I did not eat the hotel breakfast, which is included, though, so can't speak to that. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is definitely lower end, and at first I thought it was going to be sketch, but it turned out to be just fine. The locations is convenient -- just off of I-70 with quick and easy access to DEN airport (15 minutes) and the UC Health Complex. It's located in a very industrial area, so it's not glamorous, but it's fine for what it is and offers good value. The rooms are very spacious, especially if you get a room with a king bed. Parking is ample and the Wi-Fi worked well. The work desk in the room was huge, as was the sink area in the bathroom. There is a Denny's right across the parking lot where hotel guests get a 10% discount, and you can order take away food from there and basically get a room service experience if you are so inclined. I did not eat the hotel breakfast, which is included, though, so can't speak to that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r575262729-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575262729</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>clerk called my child a bundle of sticks and i almost got beat up by a homeless man.</t>
+  </si>
+  <si>
+    <t>as we pulled up to the Dennys (located about 20 feet from the rodewayinn directly in the same parkinglot) i noticed a large man with a shopping cart staring intensely and directly at me with a not so happy look on his face. i then decided to skip denny's and eat what food i had packed that was left from the drive.WE got to the front drive up and we went in.  the man at the front seamed really nice but kept referring to my small son as "jhalla". (i later realized it was a curse word after a quick google search) we got all set up and we were heading out to the room when the homeless man from earlier ran up to us with his hand out and said "help". startled and a little confused i said "you need help?". he replied by rubbing his fingers together to signal money but before i could reply an incredible look of pure anger came over his face and he raised his arm up high well letting out a quick but deep shriek/yell. i VERY quickly threw a $20 in his general direction, grabbed my son, RAN to the room,swiped the room key-card and slammed the door locked.   i should have called the police and left right then but decided to stay due to how tired i was from driving 12+ hours and having my child (who is now crying and...as we pulled up to the Dennys (located about 20 feet from the rodewayinn directly in the same parkinglot) i noticed a large man with a shopping cart staring intensely and directly at me with a not so happy look on his face. i then decided to skip denny's and eat what food i had packed that was left from the drive.WE got to the front drive up and we went in.  the man at the front seamed really nice but kept referring to my small son as "jhalla". (i later realized it was a curse word after a quick google search) we got all set up and we were heading out to the room when the homeless man from earlier ran up to us with his hand out and said "help". startled and a little confused i said "you need help?". he replied by rubbing his fingers together to signal money but before i could reply an incredible look of pure anger came over his face and he raised his arm up high well letting out a quick but deep shriek/yell. i VERY quickly threw a $20 in his general direction, grabbed my son, RAN to the room,swiped the room key-card and slammed the door locked.   i should have called the police and left right then but decided to stay due to how tired i was from driving 12+ hours and having my child (who is now crying and very scared/confused because a large homeless man randomly screamed almost directly in his face) with me. when we got into the room almost immediately you could smell cigarettes(i asked for non-smoking and the room sign said non-smoking) beds were made nicely but the walls had a obvious and noticeable coat of dust on them. the floor in the bathroom had dark brown crumbs and hair all over the sink area (from someones dog i assumed).under the sink was a plate cover that was just sitting on the ground under the sink. i looked into the wall only to see what looked like burnt or black mold covered two by fours and a cup with a used toothbrush jammed between two water pipes, as i turned to the bathroom i could see the brown streaks in the toilet bowl and that was IT. i grabbed everything including my son. opened a pocked knife i had with me, made a run for the car as quickly as i could and literally burnt rubber on the way out. forget the refund.  i will NEVER RETURN. this was a NIGHTMARE from HECK.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>as we pulled up to the Dennys (located about 20 feet from the rodewayinn directly in the same parkinglot) i noticed a large man with a shopping cart staring intensely and directly at me with a not so happy look on his face. i then decided to skip denny's and eat what food i had packed that was left from the drive.WE got to the front drive up and we went in.  the man at the front seamed really nice but kept referring to my small son as "jhalla". (i later realized it was a curse word after a quick google search) we got all set up and we were heading out to the room when the homeless man from earlier ran up to us with his hand out and said "help". startled and a little confused i said "you need help?". he replied by rubbing his fingers together to signal money but before i could reply an incredible look of pure anger came over his face and he raised his arm up high well letting out a quick but deep shriek/yell. i VERY quickly threw a $20 in his general direction, grabbed my son, RAN to the room,swiped the room key-card and slammed the door locked.   i should have called the police and left right then but decided to stay due to how tired i was from driving 12+ hours and having my child (who is now crying and...as we pulled up to the Dennys (located about 20 feet from the rodewayinn directly in the same parkinglot) i noticed a large man with a shopping cart staring intensely and directly at me with a not so happy look on his face. i then decided to skip denny's and eat what food i had packed that was left from the drive.WE got to the front drive up and we went in.  the man at the front seamed really nice but kept referring to my small son as "jhalla". (i later realized it was a curse word after a quick google search) we got all set up and we were heading out to the room when the homeless man from earlier ran up to us with his hand out and said "help". startled and a little confused i said "you need help?". he replied by rubbing his fingers together to signal money but before i could reply an incredible look of pure anger came over his face and he raised his arm up high well letting out a quick but deep shriek/yell. i VERY quickly threw a $20 in his general direction, grabbed my son, RAN to the room,swiped the room key-card and slammed the door locked.   i should have called the police and left right then but decided to stay due to how tired i was from driving 12+ hours and having my child (who is now crying and very scared/confused because a large homeless man randomly screamed almost directly in his face) with me. when we got into the room almost immediately you could smell cigarettes(i asked for non-smoking and the room sign said non-smoking) beds were made nicely but the walls had a obvious and noticeable coat of dust on them. the floor in the bathroom had dark brown crumbs and hair all over the sink area (from someones dog i assumed).under the sink was a plate cover that was just sitting on the ground under the sink. i looked into the wall only to see what looked like burnt or black mold covered two by fours and a cup with a used toothbrush jammed between two water pipes, as i turned to the bathroom i could see the brown streaks in the toilet bowl and that was IT. i grabbed everything including my son. opened a pocked knife i had with me, made a run for the car as quickly as i could and literally burnt rubber on the way out. forget the refund.  i will NEVER RETURN. this was a NIGHTMARE from HECK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r528176349-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528176349</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Dirty. The sheets had been washed but they had a stain the bathtub wall was dirty, the overall feel of the room was dirty. Did I mention it was dirty? The rooms are upgraded but you guessed it...dirty.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r528166271-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528166271</t>
+  </si>
+  <si>
+    <t>Quick overnight...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean. But definitely old. Late flight and just needed a bed. Good price. Could still smell smoke from the days that all the rooms were 'smoking'. Tiny pillows. Breakfast was not much but there was a Dennys next door and if you showed your key they took off 10%. The night clerk was lovely and so very helpful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r518552717-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>518552717</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Poorly Maintained, Terrible Housekeeping</t>
+  </si>
+  <si>
+    <t>Diamond member of this chain (choice hotels) so I've seen it all-the good, the bad, the ugly. This was ugly. Bathroom-tub had rust spots where enamel was chipped off. Tub drain was so clogged it took maintenance person 15 minutes to clear it. There was no drain plug so you couldn't have taken a bath anyway.. Bed-tiny pillows not big enough for king bed. There was no blanket-only a thin coverlet over thread-bare sheets. Carpet was torn. Breakfast-pretty skimpy, even by Rodeway standards. The waffle batter only included strawberry, they were out of plain. They were also out of most of the juices. Was unable to print my boarding passes since they were out of printer ink. Wi-fi was slo-o-o-o-o-w. Pretty shabby all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Diamond member of this chain (choice hotels) so I've seen it all-the good, the bad, the ugly. This was ugly. Bathroom-tub had rust spots where enamel was chipped off. Tub drain was so clogged it took maintenance person 15 minutes to clear it. There was no drain plug so you couldn't have taken a bath anyway.. Bed-tiny pillows not big enough for king bed. There was no blanket-only a thin coverlet over thread-bare sheets. Carpet was torn. Breakfast-pretty skimpy, even by Rodeway standards. The waffle batter only included strawberry, they were out of plain. They were also out of most of the juices. Was unable to print my boarding passes since they were out of printer ink. Wi-fi was slo-o-o-o-o-w. Pretty shabby all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r507614451-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>507614451</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Last place available for under $120</t>
+  </si>
+  <si>
+    <t>$110 a night buys you holes in the walls both in the room and in the bathroom.   At 930 PM, we have someone quite literally having someone doing freelance dent repairs on their  truck outside our room.  When we asked the front desk if they could do something, hey indicated that they would send maintenance tomorrow to look in to the matter.  Sad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r495012178-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>495012178</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>I have much better</t>
+  </si>
+  <si>
+    <t>Driving up to hotel we noticed a tree that had been almost been completely cut down. Someone had started to dig the tree up also. Weeds now growing around tree bases. First impression.
+The lobby was clean and neat except for the plastic 1 gallon jug of Round Up and 1 gallon jug of anti-freeze at the right end of the front desk. Huge danger to pets and people. Granite counter top had been pieced together with an ugly part towards the hotel staff.
+The hotel appears to have been from the early 70’s. The floor carpet looks like some from the early days of Holiday Inn?
+They used an envelope to create a folder to hold the room key. Upon check out saw the front desk clerk making more key holders from paper. CHEAP.
+Used the restroom in the lobby. Same floor tile as in the lobby but who every installed the tile left the base board on and just butted the tile against the base board. They then painted the base board and paint ran down onto the tile. Backsplash was a piece of granite that matched the vanity top but one end had been broken off and a painted the color of the wall.
+Before we had taken our clothes and luggage into the room the local police drove thru the parking area, don’t know if that is a good or bad sign.
+The room was clean,...Driving up to hotel we noticed a tree that had been almost been completely cut down. Someone had started to dig the tree up also. Weeds now growing around tree bases. First impression.The lobby was clean and neat except for the plastic 1 gallon jug of Round Up and 1 gallon jug of anti-freeze at the right end of the front desk. Huge danger to pets and people. Granite counter top had been pieced together with an ugly part towards the hotel staff.The hotel appears to have been from the early 70’s. The floor carpet looks like some from the early days of Holiday Inn?They used an envelope to create a folder to hold the room key. Upon check out saw the front desk clerk making more key holders from paper. CHEAP.Used the restroom in the lobby. Same floor tile as in the lobby but who every installed the tile left the base board on and just butted the tile against the base board. They then painted the base board and paint ran down onto the tile. Backsplash was a piece of granite that matched the vanity top but one end had been broken off and a painted the color of the wall.Before we had taken our clothes and luggage into the room the local police drove thru the parking area, don’t know if that is a good or bad sign.The room was clean, the bed was not to hard or soft. Several smaller pillows for the bed.  Just two plastic cups in the room. CHEAPThe tub drain stopper was laying in the middle of the tub.The fan cover was coming loose from the ceiling.Nice bright green trim around the top of the room.The TV channel listing was so out of date, it was useless. Could they not print this on regular paper and update as needed? So, hard to do. Also, the TV menu was set to Spanish.The light over the sink was very bright, appeared to be about a 5000K light. Looks like bright sunlight color. NO snack machine, pop and ice machine are two different areas, one near the lobby the other near the back of the hotel.AC worked well.We stay on the side of the hotel that was the furthest away from the interstate highway and heard no highway noise. The room were even numbers.The breakfast was typical waffle machine, bread etc. No cereal, NO fruit. I am a diabetic, all could have eaten was bread and butter, may have been able to make toast. I did not look for the toaster. Left to eat at the local fast food place whose name starts with “M”.Fresh coat of paint on the hotel inside and out, however just painted over damaged areas. Hotel has had many fresh coats of paint. The concrete walk way in front of the rooms had been painted, and even over the damaged areas. Did not use the microwave or refrigerator as we had no reason to use.As a finally note please spend more time improving your hotel and less time responding to customer concernsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Driving up to hotel we noticed a tree that had been almost been completely cut down. Someone had started to dig the tree up also. Weeds now growing around tree bases. First impression.
+The lobby was clean and neat except for the plastic 1 gallon jug of Round Up and 1 gallon jug of anti-freeze at the right end of the front desk. Huge danger to pets and people. Granite counter top had been pieced together with an ugly part towards the hotel staff.
+The hotel appears to have been from the early 70’s. The floor carpet looks like some from the early days of Holiday Inn?
+They used an envelope to create a folder to hold the room key. Upon check out saw the front desk clerk making more key holders from paper. CHEAP.
+Used the restroom in the lobby. Same floor tile as in the lobby but who every installed the tile left the base board on and just butted the tile against the base board. They then painted the base board and paint ran down onto the tile. Backsplash was a piece of granite that matched the vanity top but one end had been broken off and a painted the color of the wall.
+Before we had taken our clothes and luggage into the room the local police drove thru the parking area, don’t know if that is a good or bad sign.
+The room was clean,...Driving up to hotel we noticed a tree that had been almost been completely cut down. Someone had started to dig the tree up also. Weeds now growing around tree bases. First impression.The lobby was clean and neat except for the plastic 1 gallon jug of Round Up and 1 gallon jug of anti-freeze at the right end of the front desk. Huge danger to pets and people. Granite counter top had been pieced together with an ugly part towards the hotel staff.The hotel appears to have been from the early 70’s. The floor carpet looks like some from the early days of Holiday Inn?They used an envelope to create a folder to hold the room key. Upon check out saw the front desk clerk making more key holders from paper. CHEAP.Used the restroom in the lobby. Same floor tile as in the lobby but who every installed the tile left the base board on and just butted the tile against the base board. They then painted the base board and paint ran down onto the tile. Backsplash was a piece of granite that matched the vanity top but one end had been broken off and a painted the color of the wall.Before we had taken our clothes and luggage into the room the local police drove thru the parking area, don’t know if that is a good or bad sign.The room was clean, the bed was not to hard or soft. Several smaller pillows for the bed.  Just two plastic cups in the room. CHEAPThe tub drain stopper was laying in the middle of the tub.The fan cover was coming loose from the ceiling.Nice bright green trim around the top of the room.The TV channel listing was so out of date, it was useless. Could they not print this on regular paper and update as needed? So, hard to do. Also, the TV menu was set to Spanish.The light over the sink was very bright, appeared to be about a 5000K light. Looks like bright sunlight color. NO snack machine, pop and ice machine are two different areas, one near the lobby the other near the back of the hotel.AC worked well.We stay on the side of the hotel that was the furthest away from the interstate highway and heard no highway noise. The room were even numbers.The breakfast was typical waffle machine, bread etc. No cereal, NO fruit. I am a diabetic, all could have eaten was bread and butter, may have been able to make toast. I did not look for the toaster. Left to eat at the local fast food place whose name starts with “M”.Fresh coat of paint on the hotel inside and out, however just painted over damaged areas. Hotel has had many fresh coats of paint. The concrete walk way in front of the rooms had been painted, and even over the damaged areas. Did not use the microwave or refrigerator as we had no reason to use.As a finally note please spend more time improving your hotel and less time responding to customer concernsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r441584486-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>441584486</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Nice for a quick stay if you don't need wifi</t>
+  </si>
+  <si>
+    <t>The staff was great and helped me change from an upper to ground floor.  Bed and layout was nice.  My big complaint was the wifi was horrible.  Tried to get on the computer in the lobby and couldn't get into yahoo to check my e-mail. Couldn't load the site.  In the morning, when most people were off it, it was easier.  Then I missed breakfast while checking my mail.  Had to go to Denny's next door.  If they would upgrade my rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>The staff was great and helped me change from an upper to ground floor.  Bed and layout was nice.  My big complaint was the wifi was horrible.  Tried to get on the computer in the lobby and couldn't get into yahoo to check my e-mail. Couldn't load the site.  In the morning, when most people were off it, it was easier.  Then I missed breakfast while checking my mail.  Had to go to Denny's next door.  If they would upgrade my rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r433275779-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>433275779</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the cheap prices.</t>
+  </si>
+  <si>
+    <t>We stayed there about 1 week ago for one night.  We were going to stay all weekend but the room was so disgusting that we left the following morning.  The shower in the bathroom had a broken fixture and we couldn't get any hot water, the latch was broken on the door (upper lock), the carpet was stained and also starting to rip by the bathroom where there was exposed tack strip, cut my foot on it, the blankets had cigarette burns on them, their pillows are about the size of half of a regular pillow,  and last but not least, there was a used condom in the waste basket. It's not in a good neighborhood, was at the gas station next to the hotel and there was someone waiting for the bus but he was flashing gang signs towards traffic. I am not a picky person but this was so gross and I wanted to warn others about it cause I fell for it cause of the cheap prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>We stayed there about 1 week ago for one night.  We were going to stay all weekend but the room was so disgusting that we left the following morning.  The shower in the bathroom had a broken fixture and we couldn't get any hot water, the latch was broken on the door (upper lock), the carpet was stained and also starting to rip by the bathroom where there was exposed tack strip, cut my foot on it, the blankets had cigarette burns on them, their pillows are about the size of half of a regular pillow,  and last but not least, there was a used condom in the waste basket. It's not in a good neighborhood, was at the gas station next to the hotel and there was someone waiting for the bus but he was flashing gang signs towards traffic. I am not a picky person but this was so gross and I wanted to warn others about it cause I fell for it cause of the cheap prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r428866699-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>428866699</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Airline supplied, but very nice!</t>
+  </si>
+  <si>
+    <t>We were suspicious because this is the hotel that the airline chose for us. It was not deluxe, but clean, comfortable and accommodating. The bed was just fine and the bedding clean. We slept well. Breakfast the next day was ok - just what you would expect. There is no shuttle service to the airport and the taxi ride is just over $50.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>We were suspicious because this is the hotel that the airline chose for us. It was not deluxe, but clean, comfortable and accommodating. The bed was just fine and the bedding clean. We slept well. Breakfast the next day was ok - just what you would expect. There is no shuttle service to the airport and the taxi ride is just over $50.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r428823629-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>428823629</t>
+  </si>
+  <si>
+    <t>rooms badly need remodeling</t>
+  </si>
+  <si>
+    <t>Despite this photo which is deceptive, the room was in poor condition, with two flies hovering around. The area is not good, either, even though it's right off 205 West from Denver Airport. You can find much newer, better, cheaper motel in south end of Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Despite this photo which is deceptive, the room was in poor condition, with two flies hovering around. The area is not good, either, even though it's right off 205 West from Denver Airport. You can find much newer, better, cheaper motel in south end of Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r417750379-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>417750379</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Great for price</t>
+  </si>
+  <si>
+    <t>Good size room with closet, blow dryer,  little coffee maker, mini fridge and microwave.  Bed was very comfortable with 4 down like pillows.  Shower head is a bit low,  but pressure was great.  Plenty of counter space for all my toiletries.  Sheets are soft.  All in all great deal with free parking,  breakfast and wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Good size room with closet, blow dryer,  little coffee maker, mini fridge and microwave.  Bed was very comfortable with 4 down like pillows.  Shower head is a bit low,  but pressure was great.  Plenty of counter space for all my toiletries.  Sheets are soft.  All in all great deal with free parking,  breakfast and wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r415025940-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>415025940</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here....we didn't!</t>
+  </si>
+  <si>
+    <t>We had reserved a room and checked in with point rewards.  The poor outside staircase should have been a clue but we proceeded to walk toward our room.  Stopped by a "Do not pass" sign five doors prior to our room as the corridor was recently re-cemented. An employee passed by and told us it was fine to walk on so in trepidation we did.  We got to our room, flimsy door with poor lock, found a dirty plastic cup on the floor, no waste basket, mildew smell.... What to do as it is pet friendly but I wasn't sure I wanted the dog to stay here.  So we checked out after notifying the front desk we did not feel safe and found another place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>We had reserved a room and checked in with point rewards.  The poor outside staircase should have been a clue but we proceeded to walk toward our room.  Stopped by a "Do not pass" sign five doors prior to our room as the corridor was recently re-cemented. An employee passed by and told us it was fine to walk on so in trepidation we did.  We got to our room, flimsy door with poor lock, found a dirty plastic cup on the floor, no waste basket, mildew smell.... What to do as it is pet friendly but I wasn't sure I wanted the dog to stay here.  So we checked out after notifying the front desk we did not feel safe and found another place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r411047886-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>411047886</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Basic, but fine</t>
+  </si>
+  <si>
+    <t>There was nothing spectacular about this hotel, but it meets the basic needs and was acceptably fine to that end. My room could have used a new coat of paint and some less drab decorating, but the bed was fine and I slept well. The complimentary breakfast was similarly ho-hum: cold cereals, bread to be toasted, make your own waffles. I would have enjoyed more of a selection of items, like bagels, eggs, yogurts, bananas, but I had a cup of tea and some Cheerios and that sufficed. There is a free airport shuttle which is why I selected this hotel to begin with, so that is a plus. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>There was nothing spectacular about this hotel, but it meets the basic needs and was acceptably fine to that end. My room could have used a new coat of paint and some less drab decorating, but the bed was fine and I slept well. The complimentary breakfast was similarly ho-hum: cold cereals, bread to be toasted, make your own waffles. I would have enjoyed more of a selection of items, like bagels, eggs, yogurts, bananas, but I had a cup of tea and some Cheerios and that sufficed. There is a free airport shuttle which is why I selected this hotel to begin with, so that is a plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r403009411-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>403009411</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>COMMON THIEVES !!!</t>
+  </si>
+  <si>
+    <t>We didn't get into our room until around 5 pm. Then we had ask for a micro &amp; fridge. Finally got to our room neither. We had stayed @ this place a few other times and let things slide , like no tv in the room , because several had evidently been STOLEN !!! Then came the next morning @ check out ...they charged our card for 3 NIGHTS and we live in TN !!!! We like to have never got this straightened out  By the way it's not even called Roadway Inn , it's some persons business of SOME kind but not actually billed to Roadway ???! Take my advice they will rip you off and they lied right to my face ! Common crooks ! Never ever stay here. I've never seen anything like it and we travel A LOT ! -0MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>We didn't get into our room until around 5 pm. Then we had ask for a micro &amp; fridge. Finally got to our room neither. We had stayed @ this place a few other times and let things slide , like no tv in the room , because several had evidently been STOLEN !!! Then came the next morning @ check out ...they charged our card for 3 NIGHTS and we live in TN !!!! We like to have never got this straightened out  By the way it's not even called Roadway Inn , it's some persons business of SOME kind but not actually billed to Roadway ???! Take my advice they will rip you off and they lied right to my face ! Common crooks ! Never ever stay here. I've never seen anything like it and we travel A LOT ! -0More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r402932409-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>402932409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Right Price, Comfort, and Denny's discount </t>
+  </si>
+  <si>
+    <t>The staff made us feel welcome and the room was very nice and clean. Came with everything we needed including a Denny's discount and pool. King size bed you can get lost in. Breakfast included had two types of waffles, cereals, breads, bagels, coffee, teas, juices, and fruits. Quite nice. Plus we were able to leave car there while on our trip. Shuttle to airport but at this time not back but plan to have it within a couple of months. We used the Light Rail from Airport to Peoria Station and we were picked up from there. Light Rail cost us $9.00 each. Not a bad price compared to other forms of transportation. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>The staff made us feel welcome and the room was very nice and clean. Came with everything we needed including a Denny's discount and pool. King size bed you can get lost in. Breakfast included had two types of waffles, cereals, breads, bagels, coffee, teas, juices, and fruits. Quite nice. Plus we were able to leave car there while on our trip. Shuttle to airport but at this time not back but plan to have it within a couple of months. We used the Light Rail from Airport to Peoria Station and we were picked up from there. Light Rail cost us $9.00 each. Not a bad price compared to other forms of transportation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r401809693-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>401809693</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t>This hotel is of a reasonable standard for the price. Not as clean and well kept as it could have been. There is a Denny's Diner onsite which is normally a good thing but it was not of the same quality as others I've visited with regards to the food or the service, in fact I had to visit a Pharmacist to overcome a gastric problem 12hrs after dining there . Its a reasonable distance to walk for nearby restaurants the nearest being a Mexican restaurant which was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is of a reasonable standard for the price. Not as clean and well kept as it could have been. There is a Denny's Diner onsite which is normally a good thing but it was not of the same quality as others I've visited with regards to the food or the service, in fact I had to visit a Pharmacist to overcome a gastric problem 12hrs after dining there . Its a reasonable distance to walk for nearby restaurants the nearest being a Mexican restaurant which was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r391905320-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>391905320</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Rude staff who threaten to kick you out if you complain about anything and yet still charge you for two rooms</t>
+  </si>
+  <si>
+    <t>First off the man behind the desk was rude and in our faces threatening to kick us out because we had confronted him about our problems as well as others in the lobby. The man in the stripped shirt had to hold him back.  We told him about the man exposing himself and he suggested we call the police. Once we decided to do that he threatened us once again over the phone to kick us out without a refund.  I'm an officer and have never been treated like this even by inmates. Once he found out about what I do he was even more aggressive about kicking us out.  The first lady at the desk was friendly and helpful and did not treat us like dirt as this guy did.  Our room smells and we have a huge hole in the bottom of the sink.  Desks are all scratched up and there is an iron mark in the carpet. Tub was very dirty and this neighborhood is not safe.  We were told shuttle will be here at 4:30 am just to find out by this guy he will not have it here.  We wouldn't be upset about leaving after the service we have received as long we get a full refund.  All we wanted was to speak to a manager since 2:00 and was denied a call from one or to see one.  Not a very well run business....First off the man behind the desk was rude and in our faces threatening to kick us out because we had confronted him about our problems as well as others in the lobby. The man in the stripped shirt had to hold him back.  We told him about the man exposing himself and he suggested we call the police. Once we decided to do that he threatened us once again over the phone to kick us out without a refund.  I'm an officer and have never been treated like this even by inmates. Once he found out about what I do he was even more aggressive about kicking us out.  The first lady at the desk was friendly and helpful and did not treat us like dirt as this guy did.  Our room smells and we have a huge hole in the bottom of the sink.  Desks are all scratched up and there is an iron mark in the carpet. Tub was very dirty and this neighborhood is not safe.  We were told shuttle will be here at 4:30 am just to find out by this guy he will not have it here.  We wouldn't be upset about leaving after the service we have received as long we get a full refund.  All we wanted was to speak to a manager since 2:00 and was denied a call from one or to see one.  Not a very well run business.  Will be taking this to the BBB and further for all the threats as we have tried to speak to a manager first to resolve our issues.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>First off the man behind the desk was rude and in our faces threatening to kick us out because we had confronted him about our problems as well as others in the lobby. The man in the stripped shirt had to hold him back.  We told him about the man exposing himself and he suggested we call the police. Once we decided to do that he threatened us once again over the phone to kick us out without a refund.  I'm an officer and have never been treated like this even by inmates. Once he found out about what I do he was even more aggressive about kicking us out.  The first lady at the desk was friendly and helpful and did not treat us like dirt as this guy did.  Our room smells and we have a huge hole in the bottom of the sink.  Desks are all scratched up and there is an iron mark in the carpet. Tub was very dirty and this neighborhood is not safe.  We were told shuttle will be here at 4:30 am just to find out by this guy he will not have it here.  We wouldn't be upset about leaving after the service we have received as long we get a full refund.  All we wanted was to speak to a manager since 2:00 and was denied a call from one or to see one.  Not a very well run business....First off the man behind the desk was rude and in our faces threatening to kick us out because we had confronted him about our problems as well as others in the lobby. The man in the stripped shirt had to hold him back.  We told him about the man exposing himself and he suggested we call the police. Once we decided to do that he threatened us once again over the phone to kick us out without a refund.  I'm an officer and have never been treated like this even by inmates. Once he found out about what I do he was even more aggressive about kicking us out.  The first lady at the desk was friendly and helpful and did not treat us like dirt as this guy did.  Our room smells and we have a huge hole in the bottom of the sink.  Desks are all scratched up and there is an iron mark in the carpet. Tub was very dirty and this neighborhood is not safe.  We were told shuttle will be here at 4:30 am just to find out by this guy he will not have it here.  We wouldn't be upset about leaving after the service we have received as long we get a full refund.  All we wanted was to speak to a manager since 2:00 and was denied a call from one or to see one.  Not a very well run business.  Will be taking this to the BBB and further for all the threats as we have tried to speak to a manager first to resolve our issues.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r391210230-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>391210230</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad </t>
+  </si>
+  <si>
+    <t>As a over the road truck driver I stay at many many chain and mom and pop hotels and motels. I review each one and always give a fair and balanced and detailed review. So I will break it down in catagories for you. 
+SERVICE:
+Service here was decent although I wasent to fond of no early check in signs upon entering the reception area at 11am after driving 650 miles. The clerk was friendly but would not check me in early due to no clean rooms until 3 pm. After going next door to find a room I ran into same problem. I came back here and offered to make a reservation and pay. Guess what that changed things. I don't know why since I was already going to pay for a room. She asks housekeeping for a clean room and was given my card keys. Not sure why that couldn't have been done before and not lose a customer ? But I was grateful for her kindness. 
+ROOM AND HOUSEKEEPING:
+Upon walking into the room I notice no heavy smells or musky smells or even nicotine. No heavy deodorizer or scents at all. Which was a relief for someone with allergies. I noticed the bed spreads were new and had no stains or burns etc. The sheets were clean and stain,hair,blood,bugs free. 
+There was a mini fridge and microwave in the room that worked just fine. The TV...As a over the road truck driver I stay at many many chain and mom and pop hotels and motels. I review each one and always give a fair and balanced and detailed review. So I will break it down in catagories for you. SERVICE:Service here was decent although I wasent to fond of no early check in signs upon entering the reception area at 11am after driving 650 miles. The clerk was friendly but would not check me in early due to no clean rooms until 3 pm. After going next door to find a room I ran into same problem. I came back here and offered to make a reservation and pay. Guess what that changed things. I don't know why since I was already going to pay for a room. She asks housekeeping for a clean room and was given my card keys. Not sure why that couldn't have been done before and not lose a customer ? But I was grateful for her kindness. ROOM AND HOUSEKEEPING:Upon walking into the room I notice no heavy smells or musky smells or even nicotine. No heavy deodorizer or scents at all. Which was a relief for someone with allergies. I noticed the bed spreads were new and had no stains or burns etc. The sheets were clean and stain,hair,blood,bugs free. There was a mini fridge and microwave in the room that worked just fine. The TV is a flat screen LG 32" with 47 channels to choose from including 8 HBO channels. The channels are not hi def but not a big deal for that. The bed had a lot of give to it and can feel the coils below. It's not a pillow top or firm or soft. Feels like grandma's bed from the 80's. The pillows are the small little ones of course. Which is a let down. Why hotels switched to this style is beyond me. People have to balance on the pillow to use it. Please change these rhodeway sometimes looks is not better then comfort. The over appearance of the room was clean.The bathroom needed some attention the floor was dirty and not mopped or swept. The shower/tub had a dead bug in it and the tub was dirty. The towels are micro thin and very rough and scratchy 2 towels,1 wash cloth,2 hand towels and 1 mini shampoo bottle and 1 bar of soap. Now the trash cans had no liners in them either not sure why but seems to me more work for house keeping if fluids get deposited into the cans ?? In bathroom the vent above the toilet was hanging from the ceiling and dangling by the wires. Not very attractive for 102.00 per night. All the lights did work and the A/C did keep up just fine for a 100° day here. SECURITY/SAFTEY:There is a dead bolt lock and all rooms are card key locks. There is the typical hinge lock and eye in place also. I did notice some not so savory people hanging around the hotel outside and was approached for money,ciggeretes,drugs,and yep even solicited for a hr of fun. All I of course said no thank you. It was realitivly quiet around the place so far. I will know more tonight lol. But I feel it should be ok. Ammentities/PoolThe pool is located right out in the parking lot behind Denny's. There are no trees or any shade to sit back and relax pool side on a hot summer day. It would be great to see a few umbrellas for shade and a few tables not just chairs and maybe a few plants for greenery and not just concrete and asphalt. The pool was mostly clean but was a little cloudy and had your bugs and some litter around the pool side. SERVICES NEAR BYThere isn't much here walking distance except a Denny's which shares the property with the hotel. There is a ConocoPhillips gas station walking distance for soda,snacks,ice cream,etc. Other then that there isn't much. OVERALL EXPERIENCEI give this place a 3 bubble rating because of a few things.  Number one is the price, It is expensive for the type of room and amenities it comes for. Yes Denver has become expensive due to rapid growth and a Marijuana boom bringing in travelers from all over. However the hotel's are exploiting this and have jacked thier rates up taking advantage of travelers. This establishment is not worth the 102.00 per night. I feel perhaps 67.00 would be a good rate for the room and location. But it is Denver region and things have gone way up. The only cheaper hotel you can find is the motel 6 next door for 75.00 including tax. May stay so far has been ok and prob would not return just due to price. I have stayed in nicer places around the country for 102.00 that had much better beds,pools,amenities,shopping,entertainment etc. My personal advice is if you need a cheaper room then 140.00 a night and just a place to crash and not be a motel 6 then come here. However if you are looking for a  comfy bed and things to do or better choices of restaurants, then the Rhodeway is not a ideal location for you. Safe travels to all and till my next stop in this awesome country down the road. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>As a over the road truck driver I stay at many many chain and mom and pop hotels and motels. I review each one and always give a fair and balanced and detailed review. So I will break it down in catagories for you. 
+SERVICE:
+Service here was decent although I wasent to fond of no early check in signs upon entering the reception area at 11am after driving 650 miles. The clerk was friendly but would not check me in early due to no clean rooms until 3 pm. After going next door to find a room I ran into same problem. I came back here and offered to make a reservation and pay. Guess what that changed things. I don't know why since I was already going to pay for a room. She asks housekeeping for a clean room and was given my card keys. Not sure why that couldn't have been done before and not lose a customer ? But I was grateful for her kindness. 
+ROOM AND HOUSEKEEPING:
+Upon walking into the room I notice no heavy smells or musky smells or even nicotine. No heavy deodorizer or scents at all. Which was a relief for someone with allergies. I noticed the bed spreads were new and had no stains or burns etc. The sheets were clean and stain,hair,blood,bugs free. 
+There was a mini fridge and microwave in the room that worked just fine. The TV...As a over the road truck driver I stay at many many chain and mom and pop hotels and motels. I review each one and always give a fair and balanced and detailed review. So I will break it down in catagories for you. SERVICE:Service here was decent although I wasent to fond of no early check in signs upon entering the reception area at 11am after driving 650 miles. The clerk was friendly but would not check me in early due to no clean rooms until 3 pm. After going next door to find a room I ran into same problem. I came back here and offered to make a reservation and pay. Guess what that changed things. I don't know why since I was already going to pay for a room. She asks housekeeping for a clean room and was given my card keys. Not sure why that couldn't have been done before and not lose a customer ? But I was grateful for her kindness. ROOM AND HOUSEKEEPING:Upon walking into the room I notice no heavy smells or musky smells or even nicotine. No heavy deodorizer or scents at all. Which was a relief for someone with allergies. I noticed the bed spreads were new and had no stains or burns etc. The sheets were clean and stain,hair,blood,bugs free. There was a mini fridge and microwave in the room that worked just fine. The TV is a flat screen LG 32" with 47 channels to choose from including 8 HBO channels. The channels are not hi def but not a big deal for that. The bed had a lot of give to it and can feel the coils below. It's not a pillow top or firm or soft. Feels like grandma's bed from the 80's. The pillows are the small little ones of course. Which is a let down. Why hotels switched to this style is beyond me. People have to balance on the pillow to use it. Please change these rhodeway sometimes looks is not better then comfort. The over appearance of the room was clean.The bathroom needed some attention the floor was dirty and not mopped or swept. The shower/tub had a dead bug in it and the tub was dirty. The towels are micro thin and very rough and scratchy 2 towels,1 wash cloth,2 hand towels and 1 mini shampoo bottle and 1 bar of soap. Now the trash cans had no liners in them either not sure why but seems to me more work for house keeping if fluids get deposited into the cans ?? In bathroom the vent above the toilet was hanging from the ceiling and dangling by the wires. Not very attractive for 102.00 per night. All the lights did work and the A/C did keep up just fine for a 100° day here. SECURITY/SAFTEY:There is a dead bolt lock and all rooms are card key locks. There is the typical hinge lock and eye in place also. I did notice some not so savory people hanging around the hotel outside and was approached for money,ciggeretes,drugs,and yep even solicited for a hr of fun. All I of course said no thank you. It was realitivly quiet around the place so far. I will know more tonight lol. But I feel it should be ok. Ammentities/PoolThe pool is located right out in the parking lot behind Denny's. There are no trees or any shade to sit back and relax pool side on a hot summer day. It would be great to see a few umbrellas for shade and a few tables not just chairs and maybe a few plants for greenery and not just concrete and asphalt. The pool was mostly clean but was a little cloudy and had your bugs and some litter around the pool side. SERVICES NEAR BYThere isn't much here walking distance except a Denny's which shares the property with the hotel. There is a ConocoPhillips gas station walking distance for soda,snacks,ice cream,etc. Other then that there isn't much. OVERALL EXPERIENCEI give this place a 3 bubble rating because of a few things.  Number one is the price, It is expensive for the type of room and amenities it comes for. Yes Denver has become expensive due to rapid growth and a Marijuana boom bringing in travelers from all over. However the hotel's are exploiting this and have jacked thier rates up taking advantage of travelers. This establishment is not worth the 102.00 per night. I feel perhaps 67.00 would be a good rate for the room and location. But it is Denver region and things have gone way up. The only cheaper hotel you can find is the motel 6 next door for 75.00 including tax. May stay so far has been ok and prob would not return just due to price. I have stayed in nicer places around the country for 102.00 that had much better beds,pools,amenities,shopping,entertainment etc. My personal advice is if you need a cheaper room then 140.00 a night and just a place to crash and not be a motel 6 then come here. However if you are looking for a  comfy bed and things to do or better choices of restaurants, then the Rhodeway is not a ideal location for you. Safe travels to all and till my next stop in this awesome country down the road. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r383559929-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>383559929</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Old and out dated.</t>
+  </si>
+  <si>
+    <t>We stayed for one night. It is in a bad part of town and police presence is everywhere. The room was clean, but did have a bad odor. Staff was polite and friendly. The best part is, it is close to Denny's. I would not stay there again, given a choice. It was close to the hospital we were going to.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for one night. It is in a bad part of town and police presence is everywhere. The room was clean, but did have a bad odor. Staff was polite and friendly. The best part is, it is close to Denny's. I would not stay there again, given a choice. It was close to the hospital we were going to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r350145792-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>350145792</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Old and outdated</t>
+  </si>
+  <si>
+    <t>First , this hotel is in serious need of upgrade.  Second my reservation which was made over a month ago had been rented out to someone else.  The clerk was polite and able to get me in a different room.  The room itself was musty, One half of the light fixtures did not work.  I'd look somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>First , this hotel is in serious need of upgrade.  Second my reservation which was made over a month ago had been rented out to someone else.  The clerk was polite and able to get me in a different room.  The room itself was musty, One half of the light fixtures did not work.  I'd look somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r306013471-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>306013471</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Stayable</t>
+  </si>
+  <si>
+    <t>The rooms are plain jane.  Base model so to speak.  Clean and semi comfortable.  Previous front desk employees prior to 08-28-15, were very nice and were always willing to accomodate.  Biggest issue is the lady from India that does housekeeping.  She will insert card key and open door, then announce "housekeeping".  When told of her intrusion, front desk said she has had many complaints from other guests about her doing the same thing to them.  I asked why does she still do it then.  Front desk said the owners are one big Indian family in which she is a member.  She also said that if I complained too much I would be asked to leave the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Sky A, Manager at Rodeway Inn, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are plain jane.  Base model so to speak.  Clean and semi comfortable.  Previous front desk employees prior to 08-28-15, were very nice and were always willing to accomodate.  Biggest issue is the lady from India that does housekeeping.  She will insert card key and open door, then announce "housekeeping".  When told of her intrusion, front desk said she has had many complaints from other guests about her doing the same thing to them.  I asked why does she still do it then.  Front desk said the owners are one big Indian family in which she is a member.  She also said that if I complained too much I would be asked to leave the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r304111352-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>304111352</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>BED BUGS!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We are members of the Choice hotel group and we usually stay at comfort suites, but we decided to stay at this affiliate. The room itself didn't look too bad, I dropped my wife to study and I  took the kids to Dave and Busters. It was maybe an hour later that my wife called and told me she got bit by a bug that went back in the pillow case, she looked in the pillow case and there were more of these bugs. I came back and picked up my wife and our bags and reported it to the front desk, the attendant apologized and didn't question us on the bugs(It made us wonder if the hotel already knew about this) The attendant offered us another room, but we declined and stayed at Aloft-the SPG group.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are members of the Choice hotel group and we usually stay at comfort suites, but we decided to stay at this affiliate. The room itself didn't look too bad, I dropped my wife to study and I  took the kids to Dave and Busters. It was maybe an hour later that my wife called and told me she got bit by a bug that went back in the pillow case, she looked in the pillow case and there were more of these bugs. I came back and picked up my wife and our bags and reported it to the front desk, the attendant apologized and didn't question us on the bugs(It made us wonder if the hotel already knew about this) The attendant offered us another room, but we declined and stayed at Aloft-the SPG group.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r292013199-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>292013199</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Scary!</t>
+  </si>
+  <si>
+    <t>The positives: the room was clean and the front desk staff friendly. Now for the negatives: the place gave me a very uneasy feeling right away and I should have gotten right back in my car. Many small groups of men giving us the eye. Daylight all around the door to our room. Looked like it had been kicked in at one point and door seal not replaced. I was awaken at midnight to the sound of children running up and down the sidewalk  in front of the rooms. Then men laughing and arguing right outside the door. Then to top it off, there were multiple attempts made to get into our room. Don't stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>The positives: the room was clean and the front desk staff friendly. Now for the negatives: the place gave me a very uneasy feeling right away and I should have gotten right back in my car. Many small groups of men giving us the eye. Daylight all around the door to our room. Looked like it had been kicked in at one point and door seal not replaced. I was awaken at midnight to the sound of children running up and down the sidewalk  in front of the rooms. Then men laughing and arguing right outside the door. Then to top it off, there were multiple attempts made to get into our room. Don't stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r291206486-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>291206486</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Damn Near The Worst</t>
+  </si>
+  <si>
+    <t>Pros:- There was a bed and a TV (and the remote worked!)- Free WiFiCons:- Cigarette burns on shades, bed sheets.- Shower head was at shoulder level (I'm only 6 foot)- Half inch gap under door.- Continental breakfast = fruit loops or your choice of bread or a muffin. Don't even think they had a toaster. - Not as close to downtown as  you might think looking at a map. *Not entirely their fault, but we were woken up by some rowdy neighbors at 3am. The space under the door didn't help at all. Cops were called. A super fun time was had by all.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r289358590-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>289358590</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Had the unfortunate experience of staying here after our connecting flight in Denver didn't work out due to weather. Because thousands of people were stranded they (like every other hotel in this situation) decided it's just fine to jack up the rates since we have no choice. I paid $113 for the night for a run down room in a sketchy part of town. The best part? The bed bug bites I received as a souvenir. Of course when I told the front desk at 6am about this he said would I like to show him the  bugs but we needed to catch a cab to the airport. I called back a little later to inform the manager, who seemed actually concerned and asked me to call back. When I did so, I was given the run around and was told that the room was clean. I had to spend hours upon my return home washing every single item we had with us for fear of bringing those little bugs into our home. DO NOT STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had the unfortunate experience of staying here after our connecting flight in Denver didn't work out due to weather. Because thousands of people were stranded they (like every other hotel in this situation) decided it's just fine to jack up the rates since we have no choice. I paid $113 for the night for a run down room in a sketchy part of town. The best part? The bed bug bites I received as a souvenir. Of course when I told the front desk at 6am about this he said would I like to show him the  bugs but we needed to catch a cab to the airport. I called back a little later to inform the manager, who seemed actually concerned and asked me to call back. When I did so, I was given the run around and was told that the room was clean. I had to spend hours upon my return home washing every single item we had with us for fear of bringing those little bugs into our home. DO NOT STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r279757709-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>279757709</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Train runs in back of motel. Room was dirty, broken toilet, carpet/drapes in poor shape.Ad is not congruent with what is actually there. Many rooms vacant- no housekeeping.I would highly suggest that you choose a different place to stay.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r278885752-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>278885752</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>great for the money</t>
+  </si>
+  <si>
+    <t>stayed here twice before, once when it was a quality inn, and i think it was La Quinta years ago,  and was a little leery with change to rodeway, as that brand tends to be much lower quality.this property was still acceptable.rooms clean, furnishings still in great shape.  fridge and microwave in room.  bathroom clean and not showing wear (stains etc..)cant comment on breakfast due to very early flightstrong wifi signalhotel bargains in this area are hard to come by - so if you are looking for value - this might be your place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r270026931-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>270026931</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Great visit every time my husband and I stay#</t>
+  </si>
+  <si>
+    <t>No matter what, you can't please all of the people all of the time, but you can please most people most of the time. My husband and I are truckers and choose this hotel majority of the time, because for one, the rooms are pretty nice and the front desk staff is awesome. We are here at least 3 times per week and we have not had any issues. The staff has gotten to know us and welcome us with open arms and try their best to accommodate us in every way possible, because we get here at any time of day or night we know if there's vacancies we have a room. Although the rooms are brand spanking new, they are clean for the most part.Hotel: As long as you all keep improving and accommodating us we will continue to visit. Keep up the good work! Melissa &amp; Eddie Russell w/E&amp;M Trucking LLC.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>No matter what, you can't please all of the people all of the time, but you can please most people most of the time. My husband and I are truckers and choose this hotel majority of the time, because for one, the rooms are pretty nice and the front desk staff is awesome. We are here at least 3 times per week and we have not had any issues. The staff has gotten to know us and welcome us with open arms and try their best to accommodate us in every way possible, because we get here at any time of day or night we know if there's vacancies we have a room. Although the rooms are brand spanking new, they are clean for the most part.Hotel: As long as you all keep improving and accommodating us we will continue to visit. Keep up the good work! Melissa &amp; Eddie Russell w/E&amp;M Trucking LLC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r252427528-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>252427528</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Okay for the price I paid</t>
+  </si>
+  <si>
+    <t>If you gotta go to the CU Hospital in Aurora, Colo. this motel is very convenient and less expensive than many. It's just off of I-70 and is next to a Denny's Restaurant. .... The motel room showed some wear but smelled clean with no remnants of tobacco smoke. They seem to have upgraded the TV channel choices and the room had a frig and microwave. The beds now need to be replaced with newer ones. All-in-all it was worth the price for a night or two.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r250537452-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>250537452</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>I can not recommend this hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a school field trip with 15 college students.Pros: The rooms were very clean and the staff was very friendly.Cons: The rooms are very outdated and the mattress was old and uncomfortable. The door on my room had been kicked in previously and did not fit well. The neighborhood is horrible. The hotel across the parking lot was stormed by the police. Also a man knocked on my door looking for a prostitute and drugs. I felt very unsafe with the college students and would not stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r246357367-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>246357367</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>No hot water....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked here due to weather. They were quick to take my payment, but neglected to mention they wouldn't have hot water until the next day until we checked in.... I really was not impressed with the hotel. I guess there is a reason it was the only left available during the storm.         </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r235620821-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>235620821</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Went for fun</t>
+  </si>
+  <si>
+    <t>The family traveled to Denver for the Great American Beer Fest. We states for two nights. The first night was not so great. With the exterior rooms you can hear everything going on outside. Some one screaming around 2 am was a bit unnerving and then the sound of someone running. We decided to stay the second night not because it was a great stay but it was more if a hassle to move. We will not stay there again. The rooms are old and run down.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r231477611-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>231477611</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>Our room at Quality Inn was clean and had the basic amenities of a motel rated around two stars. My main complaint is about the location of our room. We were in close proximity to a "utility room" that housed an ice machine, vending machine and I think a washer and dryer. There was an unpleasant odor from this area that resembled the smell of gas. We had to walk past this area to get to and from our room to our car so we didn't really have an alternative route to take. The continental breakfast was comparable to most motels we have visited offering coffee, juice, cereal, waffles, pastries and fruit. The lobby was nicely decorated and the desk clerk was pleasant and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Our room at Quality Inn was clean and had the basic amenities of a motel rated around two stars. My main complaint is about the location of our room. We were in close proximity to a "utility room" that housed an ice machine, vending machine and I think a washer and dryer. There was an unpleasant odor from this area that resembled the smell of gas. We had to walk past this area to get to and from our room to our car so we didn't really have an alternative route to take. The continental breakfast was comparable to most motels we have visited offering coffee, juice, cereal, waffles, pastries and fruit. The lobby was nicely decorated and the desk clerk was pleasant and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r228131639-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>228131639</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Very Poor.</t>
+  </si>
+  <si>
+    <t>This hotel is total mess. I have stayed here for regular hospital visits with family members on two separate occasions due to availability at other locations in the area. The first time we were asked to leave after the manager decided that he wasn't happy with the hospital rate we were booked for and was "losing money," putting us (one sick and wheelchair bound) out to find another place to stay. Nice guy.
+The second stay weeks later would be even worse. There was no availability anywhere else so we had no choice. We were continually charged (charged, no pending/fall-off charges, money removed) for extra nights EVERY night we stayed. We didn't learn this until several nights in. After collecting detailed bank info and recpiepts on every individual charge, we brought it up with the manager. The manager was very unprofessional and refused to even look into the problem, suggesting that it was somehow our error and our money wasn't actually being taken. The chain "couldn't do anything."
+The rooms themselves, for the amount asked (even on the hospital rate) are overpriced. The pillows essentially don't exist. The floor was visibly dirty. The furniture is held together with DIY hardware. The bathrooms are tiny and disgusting, one bathtub containing a used band aid, a door with blood on it. If you are taller than 5' 5" good luck taking a shower. The sink had food and hair stuck in the...This hotel is total mess. I have stayed here for regular hospital visits with family members on two separate occasions due to availability at other locations in the area. The first time we were asked to leave after the manager decided that he wasn't happy with the hospital rate we were booked for and was "losing money," putting us (one sick and wheelchair bound) out to find another place to stay. Nice guy.The second stay weeks later would be even worse. There was no availability anywhere else so we had no choice. We were continually charged (charged, no pending/fall-off charges, money removed) for extra nights EVERY night we stayed. We didn't learn this until several nights in. After collecting detailed bank info and recpiepts on every individual charge, we brought it up with the manager. The manager was very unprofessional and refused to even look into the problem, suggesting that it was somehow our error and our money wasn't actually being taken. The chain "couldn't do anything."The rooms themselves, for the amount asked (even on the hospital rate) are overpriced. The pillows essentially don't exist. The floor was visibly dirty. The furniture is held together with DIY hardware. The bathrooms are tiny and disgusting, one bathtub containing a used band aid, a door with blood on it. If you are taller than 5' 5" good luck taking a shower. The sink had food and hair stuck in the drain from the last occupant and the frames around the door to the shower/toilet were peeling and rotting with mold. Many of these were present on both stays. On top of overpriced rooms, and aside from the billing issues, the hotel is generaly run quite poorly. Spending any time in the lobby will lend you witness to other guests trying to have simple problems solved by staff that either doesn't care or isn't capable of preforming their job correctly. Rarely are they resolved appropriately. Others were being charged for nights they hadn't booked, requesting shampoo/conditioner and getting lotion, broken tv remotes or missing lightbulbs etc. One woman's toilet was broken for over 24 hours and was not taken care of until multiple complaints were made. The maintenance does no actual maintenance, despite being around all the time. I attempted to do laundry one night to find the washing machine was broken, leaving most of our clothes wet and covered in soap. There was no sign. I brought this up with the front desk and was told that yes it was broken and that there was an out of order sign on the unit... A day later the unit had not been fixed so we were offered a ride to a laundromat for the last day's trouble. After arriving at the the laundromat we were told by the driver of the hotel shuttle that he wouldn't have time to pick us up later so he will drive us back and we can use the house keeping laundry... While doing the laundry an employee asked if I could also do their laundry for them, because they didn't have time. He was totally serious. Most of the staff is rude, house keeping will knock once and immediately open the door. There is one vacuum for the entire hotel. Towels seem to be in very limited supply and are rationed strictly because there are no extras. The front desk does not pick up for phone calls from within the hotel but will be at your door in seconds if you miss a call from them.I would not advise staying here unless you literally have no other choice. Due to the billing issues experienced multiple times and by other guests I cannot even recommend one night's stay. Avoid. We never got our money back. Also, several days before our first stay someone was shot and killed here. So there is that.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This hotel is total mess. I have stayed here for regular hospital visits with family members on two separate occasions due to availability at other locations in the area. The first time we were asked to leave after the manager decided that he wasn't happy with the hospital rate we were booked for and was "losing money," putting us (one sick and wheelchair bound) out to find another place to stay. Nice guy.
+The second stay weeks later would be even worse. There was no availability anywhere else so we had no choice. We were continually charged (charged, no pending/fall-off charges, money removed) for extra nights EVERY night we stayed. We didn't learn this until several nights in. After collecting detailed bank info and recpiepts on every individual charge, we brought it up with the manager. The manager was very unprofessional and refused to even look into the problem, suggesting that it was somehow our error and our money wasn't actually being taken. The chain "couldn't do anything."
+The rooms themselves, for the amount asked (even on the hospital rate) are overpriced. The pillows essentially don't exist. The floor was visibly dirty. The furniture is held together with DIY hardware. The bathrooms are tiny and disgusting, one bathtub containing a used band aid, a door with blood on it. If you are taller than 5' 5" good luck taking a shower. The sink had food and hair stuck in the...This hotel is total mess. I have stayed here for regular hospital visits with family members on two separate occasions due to availability at other locations in the area. The first time we were asked to leave after the manager decided that he wasn't happy with the hospital rate we were booked for and was "losing money," putting us (one sick and wheelchair bound) out to find another place to stay. Nice guy.The second stay weeks later would be even worse. There was no availability anywhere else so we had no choice. We were continually charged (charged, no pending/fall-off charges, money removed) for extra nights EVERY night we stayed. We didn't learn this until several nights in. After collecting detailed bank info and recpiepts on every individual charge, we brought it up with the manager. The manager was very unprofessional and refused to even look into the problem, suggesting that it was somehow our error and our money wasn't actually being taken. The chain "couldn't do anything."The rooms themselves, for the amount asked (even on the hospital rate) are overpriced. The pillows essentially don't exist. The floor was visibly dirty. The furniture is held together with DIY hardware. The bathrooms are tiny and disgusting, one bathtub containing a used band aid, a door with blood on it. If you are taller than 5' 5" good luck taking a shower. The sink had food and hair stuck in the drain from the last occupant and the frames around the door to the shower/toilet were peeling and rotting with mold. Many of these were present on both stays. On top of overpriced rooms, and aside from the billing issues, the hotel is generaly run quite poorly. Spending any time in the lobby will lend you witness to other guests trying to have simple problems solved by staff that either doesn't care or isn't capable of preforming their job correctly. Rarely are they resolved appropriately. Others were being charged for nights they hadn't booked, requesting shampoo/conditioner and getting lotion, broken tv remotes or missing lightbulbs etc. One woman's toilet was broken for over 24 hours and was not taken care of until multiple complaints were made. The maintenance does no actual maintenance, despite being around all the time. I attempted to do laundry one night to find the washing machine was broken, leaving most of our clothes wet and covered in soap. There was no sign. I brought this up with the front desk and was told that yes it was broken and that there was an out of order sign on the unit... A day later the unit had not been fixed so we were offered a ride to a laundromat for the last day's trouble. After arriving at the the laundromat we were told by the driver of the hotel shuttle that he wouldn't have time to pick us up later so he will drive us back and we can use the house keeping laundry... While doing the laundry an employee asked if I could also do their laundry for them, because they didn't have time. He was totally serious. Most of the staff is rude, house keeping will knock once and immediately open the door. There is one vacuum for the entire hotel. Towels seem to be in very limited supply and are rationed strictly because there are no extras. The front desk does not pick up for phone calls from within the hotel but will be at your door in seconds if you miss a call from them.I would not advise staying here unless you literally have no other choice. Due to the billing issues experienced multiple times and by other guests I cannot even recommend one night's stay. Avoid. We never got our money back. Also, several days before our first stay someone was shot and killed here. So there is that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r219746907-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>219746907</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Just no.</t>
+  </si>
+  <si>
+    <t>This place is not good. The hotel is in a bad area of town and just seems seedy and sketchy. It was very uncomfortable to be here. If we hadn't prepaid we probably would have left. The room seemed moderately clean but that was about it. The traffic getting there was a nightmare. All around the room was one of the worst that I've stayed in. The only convenience factor is that there is a Denny's close by for a quick bite to eat and it was just off the interstate. There are also train tracks nearby so it's more than a bit loud. Also the fridge was not working.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This place is not good. The hotel is in a bad area of town and just seems seedy and sketchy. It was very uncomfortable to be here. If we hadn't prepaid we probably would have left. The room seemed moderately clean but that was about it. The traffic getting there was a nightmare. All around the room was one of the worst that I've stayed in. The only convenience factor is that there is a Denny's close by for a quick bite to eat and it was just off the interstate. There are also train tracks nearby so it's more than a bit loud. Also the fridge was not working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r217259432-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>217259432</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>What was I thinking?</t>
+  </si>
+  <si>
+    <t>I selected this hotel because of price and proximity to the airport. The lobby was clean and that was it.  Room carpet turned my socks black in 10 minutes.  The one upholstered chair in the room was heavily stained and shoved up against the adjoining room door. Outside areas had trash in corridors and stairwells.  Only got a glance of the pool during my search for a working ice machine....not good.   We only stayed a few hours and headed to the airport, but I wouldn't have stayed there by myself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r216312444-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>216312444</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Close to the airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We booked the room as a cheap convenient way to be close to the airport.  It's not in the best neighborhood,  but it's better Newark!  It's clean and good enough for one night.  We didn't have any issues. Could use an update on the interior. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r213435011-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>213435011</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Seedy place to stay.  Bad all around.</t>
+  </si>
+  <si>
+    <t>The only upbeat things I can say about this hotel is the lady at the front desk was nice, and the lobby and entrance was clean &amp; tidy.I found the Quality Inn through the 'Choice Hotels' website, and thought we were staying at a good property.The room was dirty, dank, and I don't believe it had been cleaned.  A dirty washcloth that I assume belonged to the last guest was still in the bottom of the shower.The room was advertised as having queen size beds.  These beds were clearly full size, and not as advertised.  Plus...I placed on my reservation that we had a dog, and verbalized it to the lobby lady, and to my surprised, we were placed in a room that clearly stated "No Pets".My neighbors cornered the market on marijuana, as that is what we smelled all night.The parking lot was a mess.  I did witness a drug deal, and prostitution right out in the open while walking my dog.The walkway, walls, stairs,,,all filthy.The next morning I noted someone had taken their trash, and emptied it all over the lot.Not surprising I have not received a visit survey from this establishment.We did not feel safe here.Bad neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The only upbeat things I can say about this hotel is the lady at the front desk was nice, and the lobby and entrance was clean &amp; tidy.I found the Quality Inn through the 'Choice Hotels' website, and thought we were staying at a good property.The room was dirty, dank, and I don't believe it had been cleaned.  A dirty washcloth that I assume belonged to the last guest was still in the bottom of the shower.The room was advertised as having queen size beds.  These beds were clearly full size, and not as advertised.  Plus...I placed on my reservation that we had a dog, and verbalized it to the lobby lady, and to my surprised, we were placed in a room that clearly stated "No Pets".My neighbors cornered the market on marijuana, as that is what we smelled all night.The parking lot was a mess.  I did witness a drug deal, and prostitution right out in the open while walking my dog.The walkway, walls, stairs,,,all filthy.The next morning I noted someone had taken their trash, and emptied it all over the lot.Not surprising I have not received a visit survey from this establishment.We did not feel safe here.Bad neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r204043184-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>204043184</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Bad place to Stay!</t>
+  </si>
+  <si>
+    <t>This motel is in a very bad neighborhood the police were actually at Denny's in the parking lot after we checked in. The lobby is the only nice thing everything else is in very bad shape and very unclean. The outside of the building is in bad shape unclean, paint peeling, needs updated bad. They told us when checking in all the ground level rooms had not been cleaned yet this was at 4:45 p.m. Our room was in very bad shape unclean, burn holes in comforter, hair on floor. It was so bad we refused to take a shower. There is no way they sweep or vacuum the floors after each visit, furniture had deep scratches all over it. A tent would have been better to stay in than this place. Got woke up very early at sunrise because someone was trying to get in our room. I looked out and it was two males and the one that was trying to get in was a very scruffy unclean looking individual and found out later it was the maintenance help trying to get inside our room. It was a good thing we had everything locked up so he could not get in. I found out they rented our room early in the morning to someone else. I would suggest if you stay here to come armed and stay armed the whole time even walking to your vehicle. Denny's next...This motel is in a very bad neighborhood the police were actually at Denny's in the parking lot after we checked in. The lobby is the only nice thing everything else is in very bad shape and very unclean. The outside of the building is in bad shape unclean, paint peeling, needs updated bad. They told us when checking in all the ground level rooms had not been cleaned yet this was at 4:45 p.m. Our room was in very bad shape unclean, burn holes in comforter, hair on floor. It was so bad we refused to take a shower. There is no way they sweep or vacuum the floors after each visit, furniture had deep scratches all over it. A tent would have been better to stay in than this place. Got woke up very early at sunrise because someone was trying to get in our room. I looked out and it was two males and the one that was trying to get in was a very scruffy unclean looking individual and found out later it was the maintenance help trying to get inside our room. It was a good thing we had everything locked up so he could not get in. I found out they rented our room early in the morning to someone else. I would suggest if you stay here to come armed and stay armed the whole time even walking to your vehicle. Denny's next door is no better walked in around 10:00 p.m. and two female waitresses are yelling and screaming at each other and was about to fight right at the cash register. Motel 6 next door also looks just as bad and people that were living in motel 6 come over to Quality Inn to eat the free breakfast. If you want drama for entertainment stay here! The convenience store next to Motel 6 was just as bad a customer was getting upset because his credit card would not work. I hurried up and got out of there before things turned ugly. This area is not for a family to stay very horrible conditions at Quality Inn. There were only a few employees wearing uniforms everyone else looked like they were living there from week to week. After seeing the male cleaning staff I could see why the rooms are not clean at all. If there was a negative review this would be the place. Worst motel I have ever stayed at in my life.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This motel is in a very bad neighborhood the police were actually at Denny's in the parking lot after we checked in. The lobby is the only nice thing everything else is in very bad shape and very unclean. The outside of the building is in bad shape unclean, paint peeling, needs updated bad. They told us when checking in all the ground level rooms had not been cleaned yet this was at 4:45 p.m. Our room was in very bad shape unclean, burn holes in comforter, hair on floor. It was so bad we refused to take a shower. There is no way they sweep or vacuum the floors after each visit, furniture had deep scratches all over it. A tent would have been better to stay in than this place. Got woke up very early at sunrise because someone was trying to get in our room. I looked out and it was two males and the one that was trying to get in was a very scruffy unclean looking individual and found out later it was the maintenance help trying to get inside our room. It was a good thing we had everything locked up so he could not get in. I found out they rented our room early in the morning to someone else. I would suggest if you stay here to come armed and stay armed the whole time even walking to your vehicle. Denny's next...This motel is in a very bad neighborhood the police were actually at Denny's in the parking lot after we checked in. The lobby is the only nice thing everything else is in very bad shape and very unclean. The outside of the building is in bad shape unclean, paint peeling, needs updated bad. They told us when checking in all the ground level rooms had not been cleaned yet this was at 4:45 p.m. Our room was in very bad shape unclean, burn holes in comforter, hair on floor. It was so bad we refused to take a shower. There is no way they sweep or vacuum the floors after each visit, furniture had deep scratches all over it. A tent would have been better to stay in than this place. Got woke up very early at sunrise because someone was trying to get in our room. I looked out and it was two males and the one that was trying to get in was a very scruffy unclean looking individual and found out later it was the maintenance help trying to get inside our room. It was a good thing we had everything locked up so he could not get in. I found out they rented our room early in the morning to someone else. I would suggest if you stay here to come armed and stay armed the whole time even walking to your vehicle. Denny's next door is no better walked in around 10:00 p.m. and two female waitresses are yelling and screaming at each other and was about to fight right at the cash register. Motel 6 next door also looks just as bad and people that were living in motel 6 come over to Quality Inn to eat the free breakfast. If you want drama for entertainment stay here! The convenience store next to Motel 6 was just as bad a customer was getting upset because his credit card would not work. I hurried up and got out of there before things turned ugly. This area is not for a family to stay very horrible conditions at Quality Inn. There were only a few employees wearing uniforms everyone else looked like they were living there from week to week. After seeing the male cleaning staff I could see why the rooms are not clean at all. If there was a negative review this would be the place. Worst motel I have ever stayed at in my life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r201618835-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>201618835</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Needs some TLC</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel after staying at another (very nice) Quality Inn the night before in Nebraska. The front of the hotel and the lobby look very nice, but the rest of the hotel could definitely use some TLC. The rooms are all outdoor style (so your doors all lead directly outside) and it didn't seem to be the nicest neighborhood. The room was not well cleaned prior to us staying here, there was still garbage from the previous people, the shampoo bottles were half used, etc. The breakfast buffet was pretty good, though the area it's in was very small with only 3 or 4 tables so if you got there later in the morning, you might be out of luck and you're not supposed to take the food back to your room. Being near the airport, it's a fair distance from downtown Denver, and I didn't find it worth the price given the location and condition of the hotel. There are a few other hotels on the other side of the I70 that seemed much nicer from the outside, and the Motel 6 next door to this hotel seemed about the same condition but much cheaper - we paid about $90 for our room compared to Motel 6 next door advertising $50.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel after staying at another (very nice) Quality Inn the night before in Nebraska. The front of the hotel and the lobby look very nice, but the rest of the hotel could definitely use some TLC. The rooms are all outdoor style (so your doors all lead directly outside) and it didn't seem to be the nicest neighborhood. The room was not well cleaned prior to us staying here, there was still garbage from the previous people, the shampoo bottles were half used, etc. The breakfast buffet was pretty good, though the area it's in was very small with only 3 or 4 tables so if you got there later in the morning, you might be out of luck and you're not supposed to take the food back to your room. Being near the airport, it's a fair distance from downtown Denver, and I didn't find it worth the price given the location and condition of the hotel. There are a few other hotels on the other side of the I70 that seemed much nicer from the outside, and the Motel 6 next door to this hotel seemed about the same condition but much cheaper - we paid about $90 for our room compared to Motel 6 next door advertising $50.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r197427747-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>197427747</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>tub hadent been cleaned</t>
+  </si>
+  <si>
+    <t>The guy at the front desk on 4-13 at about 1145 pm was super friendly and nice! but the room? bad. tub wasnt cleaned, there was stains on the towells and the floor? ick. this place needs some love. Dennys is next door so that helps since the breakfast is mediocre</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r188016755-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>188016755</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Seems to have deteriorated since my last visit</t>
+  </si>
+  <si>
+    <t>I've often stayed at this hotel which is cheap, has free wifi, and is in a convenient location near I-70 and yet not noisy. In the past, the staff was excellent, the rooms very clean and more than once I have been helped out beyond the call of duty, so I felt loyal to it. The hotel seems to have had a change of management, and it definitely needs some attention and sprucing up. The people are very nice but there were lots of little things wrong, like a phone with buttons missing, a shower curtain that is put on wrong, or bed linens that just didn't look fresh and clean. It adds up to a less-than-quality experience. I will give the place one more chance out of loyalty but I was quite disappointed this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I've often stayed at this hotel which is cheap, has free wifi, and is in a convenient location near I-70 and yet not noisy. In the past, the staff was excellent, the rooms very clean and more than once I have been helped out beyond the call of duty, so I felt loyal to it. The hotel seems to have had a change of management, and it definitely needs some attention and sprucing up. The people are very nice but there were lots of little things wrong, like a phone with buttons missing, a shower curtain that is put on wrong, or bed linens that just didn't look fresh and clean. It adds up to a less-than-quality experience. I will give the place one more chance out of loyalty but I was quite disappointed this time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r183360070-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>183360070</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>very nice front desk staff there is one who seems genuine</t>
+  </si>
+  <si>
+    <t>i just wanted to start out by saying it was a very peaceful stay and the quality of the front desk has gotten much better since their upbringing of the property and i just wanted to point out there is one blonde gal who goes way out of her way to make people happy and always has a great attitude. and i know she appreciates her job. i think that is pretty awesome to see in a buisness</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r178511155-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>178511155</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>thank you manager kelly</t>
+  </si>
+  <si>
+    <t>thank manager kelly for read my other review the last saturday  I stay for a few hours in the quality inn in peoria way  I think you need take care with this location I had a terrible experience the last saturday but I call my bank today and I get my  $110 dollars back you need take care with the people in the front desk I do not understand why they charge me another $110 and need take care with the peple who clean the rooms but any way thanks because I got my money back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r178207875-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>178207875</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>RUN QUICK</t>
+  </si>
+  <si>
+    <t>Stayed Sept 17th, 2013 and found this hotel to be, absolutly the worst hotel we stayed in within our 30 day vacation.  The  checkin staff was not very freindly, and from there it got worst.  No internet service, poor breakfast (no waffles. etc), low quality room (no refridge, old, lumpy bed, bathroom not cleaned well), checkout staff cared less about anything, and no one answered the phone when I called the operator at 4;30 am to complain about the noise and activities coming from room 133 and 135.  Seemed to me ( after having our door knocked on at 2;30 and a man asking if service was still available and then going to room 133)  that there must have been something illegal (in my opion) going on,  This is not the quailty we are used to in a Quality Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed Sept 17th, 2013 and found this hotel to be, absolutly the worst hotel we stayed in within our 30 day vacation.  The  checkin staff was not very freindly, and from there it got worst.  No internet service, poor breakfast (no waffles. etc), low quality room (no refridge, old, lumpy bed, bathroom not cleaned well), checkout staff cared less about anything, and no one answered the phone when I called the operator at 4;30 am to complain about the noise and activities coming from room 133 and 135.  Seemed to me ( after having our door knocked on at 2;30 and a man asking if service was still available and then going to room 133)  that there must have been something illegal (in my opion) going on,  This is not the quailty we are used to in a Quality Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r178157551-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>178157551</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>This hotel is in a horrible location. We unloaded our luggage went to dinner and returned to our room to find our door pried open and the alarm going off. The management didn't seem excited at all that our room was burglarized . Not a safe area!!!! Do not stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r175530963-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>175530963</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Breakfast needs to be changed--</t>
+  </si>
+  <si>
+    <t>We stayed a week and morning breakfast  was the exact food items as the day before and the day before and the day before --etc. Also there was a sign in the breakfast area that read " no food allowed beyond this sign do to a health risk" I think being able to take your food to your room should be allowed as it was stuffy and hot where the seating area was.  The room was clean I would stay there again. Its not fancy but comfortable, clean and friendly staff. The shuttle was a nice plus  and the price was very reasonable.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r172696892-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>172696892</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Stained sheets and poor service</t>
+  </si>
+  <si>
+    <t>I didn't even have to peel back the covers before I found a few crusty stains that shouldn't have been there. The top sheet had the mirror image of the stain, but it was as if the top sheet and blanket were merely turned so head was to foot and vice versa.I called down to the front desk, and eventually had to walk down and confront the desk man 15 minutes later. He had it written on a sheet of paper but had done nothing about it. I got the sheets myself and made the bed myself. Oh and the Wifi is broken - won't allow you access to the Internet. And the train goes by at midnight blaring its horn..I am truly disappointed, "Quality" Inn. Shame upon you for not shutting this place down.MoreShow less</t>
+  </si>
+  <si>
+    <t>I didn't even have to peel back the covers before I found a few crusty stains that shouldn't have been there. The top sheet had the mirror image of the stain, but it was as if the top sheet and blanket were merely turned so head was to foot and vice versa.I called down to the front desk, and eventually had to walk down and confront the desk man 15 minutes later. He had it written on a sheet of paper but had done nothing about it. I got the sheets myself and made the bed myself. Oh and the Wifi is broken - won't allow you access to the Internet. And the train goes by at midnight blaring its horn..I am truly disappointed, "Quality" Inn. Shame upon you for not shutting this place down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r172694641-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>172694641</t>
+  </si>
+  <si>
+    <t>Great, cheap place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 7 days and I really enjoyed my stay here at Quality Inn. The rooms were at a decent size and the staff were warm and welcoming. The food  was delious, I would definitely stay here again.                        .                                                .Thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r167735651-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>167735651</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>OK, but not for the faint-hearted</t>
+  </si>
+  <si>
+    <t>I booked this room thru Travelocity; after the fees and taxes it was about $38 less than a direct booking.  It was listed as in the Denver Airport area, but it actually is 14 miles away (but a quick 15-minute ride).  The neigborhood is kind of seedy, and the building and furnishings are old.  The desk chair was too low for the table.  Wifi worked great, and the free breakfast was quite good.  Evening and daytime desk staff were very courteous.  Room had 2 queen beds even though it was just for me.  Some of the guests looked a little unsavory; I figured it might be some kind of drug-related place; but no one bothered me.  Just before I left, I killed a roach near the sink.  There was no problem with noise, and I slept OK.  There's a Denny's next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I booked this room thru Travelocity; after the fees and taxes it was about $38 less than a direct booking.  It was listed as in the Denver Airport area, but it actually is 14 miles away (but a quick 15-minute ride).  The neigborhood is kind of seedy, and the building and furnishings are old.  The desk chair was too low for the table.  Wifi worked great, and the free breakfast was quite good.  Evening and daytime desk staff were very courteous.  Room had 2 queen beds even though it was just for me.  Some of the guests looked a little unsavory; I figured it might be some kind of drug-related place; but no one bothered me.  Just before I left, I killed a roach near the sink.  There was no problem with noise, and I slept OK.  There's a Denny's next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r167461258-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>167461258</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Worst Hotel of the 10 on this trip!</t>
+  </si>
+  <si>
+    <t>My husband and I are on a 3 week trip.  I tried to stay with the Choice Hotel chain to get points.This is the worst hotel we have stayed at!  I booked 2 nights on separate days so I explained that when I checked in.  The next day while on Pikes Peak enjoying my vacation, the front desk called to tell me that I left stuff in the room.  I explained again that I booked 2 nights (prepaid).  "No problem" she tells me.  We return to our room to find that is was not serviced.  The guy at the desk apologizes and gives us extra shampoo.  Someone brings us a towel and floor at that are both pretty damp.  I go the front desk again and request towels.  I am told that the guy with the key left.  I ask if they can get them from an unoccupied room.  He gives me a room key to go check a room because he can't leave the desk.  My husband I go into a room to get our own towels.In addition to this fiasco, the tub took hours to drain after our showers and the wifi didn't work.We were on the "good side" of the hotel.  It was loud all night.  We could hear people outside of our room.  I told the front desk exactly how I felt before we left.  Do not stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I are on a 3 week trip.  I tried to stay with the Choice Hotel chain to get points.This is the worst hotel we have stayed at!  I booked 2 nights on separate days so I explained that when I checked in.  The next day while on Pikes Peak enjoying my vacation, the front desk called to tell me that I left stuff in the room.  I explained again that I booked 2 nights (prepaid).  "No problem" she tells me.  We return to our room to find that is was not serviced.  The guy at the desk apologizes and gives us extra shampoo.  Someone brings us a towel and floor at that are both pretty damp.  I go the front desk again and request towels.  I am told that the guy with the key left.  I ask if they can get them from an unoccupied room.  He gives me a room key to go check a room because he can't leave the desk.  My husband I go into a room to get our own towels.In addition to this fiasco, the tub took hours to drain after our showers and the wifi didn't work.We were on the "good side" of the hotel.  It was loud all night.  We could hear people outside of our room.  I told the front desk exactly how I felt before we left.  Do not stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r167423632-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>167423632</t>
+  </si>
+  <si>
+    <t>MOTEL FROM HELL</t>
+  </si>
+  <si>
+    <t>Even when I was a youngster with limited funds I would rather sleep at an interstate rest stop than here. Staff informed us not to go out at night. We had already paid so we went to check out the room. Small room and too small for the furniture. Door appeared to have had an attempted break in. Same with other doors and the ice machine was even locked. Door also was in sad shape. Informed staff this was certainly not going to be a place we could stay and they cheerfully refunded money. The pictures on the internet do not resemble anything we saw. Might have been pictures from another motel. If you are looking for a nasty place to stay this is it. Look no further.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Even when I was a youngster with limited funds I would rather sleep at an interstate rest stop than here. Staff informed us not to go out at night. We had already paid so we went to check out the room. Small room and too small for the furniture. Door appeared to have had an attempted break in. Same with other doors and the ice machine was even locked. Door also was in sad shape. Informed staff this was certainly not going to be a place we could stay and they cheerfully refunded money. The pictures on the internet do not resemble anything we saw. Might have been pictures from another motel. If you are looking for a nasty place to stay this is it. Look no further.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r165190239-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>165190239</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>My Sister and I reached Denver after a 12 hour drive.  Denver was a little over the half way mark to our vacation destination.  Originally our room was located next to the elevator and vending machines.  Fearing that it might be to noisy for us, we requested another room and were easily accommodated.  In the morning, some time after washing, dressing, having breakfast and checkig out, I realized that I left my watch.  Nothing expensive, but sentimentally valuable.  I called immediately when I realized that I had left it under the pillow in the room in which I stayed.  And yes, thank you staff for finding it and turning it in.  And yes, thank you staff for making arrangements with me to send the watch to my home.  As my Sister and I had at least another 8 hour drive ahead of us, and we were a couple of hours northwest of Denver when the discovery was made, it would have been hurrendous to have to go back to get the watch.  The honesty and the service is appreciated and applauded.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My Sister and I reached Denver after a 12 hour drive.  Denver was a little over the half way mark to our vacation destination.  Originally our room was located next to the elevator and vending machines.  Fearing that it might be to noisy for us, we requested another room and were easily accommodated.  In the morning, some time after washing, dressing, having breakfast and checkig out, I realized that I left my watch.  Nothing expensive, but sentimentally valuable.  I called immediately when I realized that I had left it under the pillow in the room in which I stayed.  And yes, thank you staff for finding it and turning it in.  And yes, thank you staff for making arrangements with me to send the watch to my home.  As my Sister and I had at least another 8 hour drive ahead of us, and we were a couple of hours northwest of Denver when the discovery was made, it would have been hurrendous to have to go back to get the watch.  The honesty and the service is appreciated and applauded.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r164489431-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>164489431</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Some Times You Don't Get What You Pay For :(</t>
+  </si>
+  <si>
+    <t>Everything looked pretty good when I checked this place out on the internet but there's no way I'll return.  It took the desk clerk a while to check me in as she was busy shuffling papers and apparently that was more important.  She finally took care of me and I got to my room.  All of the rooms have outside entry, no hallway so when I open my door I was looking at the parking lot.  The room was large and clean but lots of lack of maintenance!  You had to hold the lever down on the toilet for 10-15 seconds to get it to flush all the way.  No clock in the room, the mirror over the sink had a piece about 6" x 18" missing from one corner.  Apparently it got broke and they didn't feel the mirror should be replaced.  The ceiling light in the bath didn't work and the fan in there was so loud it was unbearable.  There was a major rust stain around the drain in the tub and the breakfast room was very small.  Hopefully you don't get a room on the 2nd floor as there's no elevator.  I never was able to get connected to there internet.  I paid almost $100 per night so I guess I expected better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything looked pretty good when I checked this place out on the internet but there's no way I'll return.  It took the desk clerk a while to check me in as she was busy shuffling papers and apparently that was more important.  She finally took care of me and I got to my room.  All of the rooms have outside entry, no hallway so when I open my door I was looking at the parking lot.  The room was large and clean but lots of lack of maintenance!  You had to hold the lever down on the toilet for 10-15 seconds to get it to flush all the way.  No clock in the room, the mirror over the sink had a piece about 6" x 18" missing from one corner.  Apparently it got broke and they didn't feel the mirror should be replaced.  The ceiling light in the bath didn't work and the fan in there was so loud it was unbearable.  There was a major rust stain around the drain in the tub and the breakfast room was very small.  Hopefully you don't get a room on the 2nd floor as there's no elevator.  I never was able to get connected to there internet.  I paid almost $100 per night so I guess I expected better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r158657434-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>158657434</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!</t>
+  </si>
+  <si>
+    <t>The staff was excellent, Kim and Amanda really took good care of me and provided an outstanding welcome.  They were very courteous and ensured all of my needs were met.  They also provided helpful information about very popular restaurants within walking walking distances. The warm presentation of the lobby was definitely award-winning.The only downfall is that e alls at very thin and that you hear the showers running and little noises through the walls.  Other than that I would give this hotel staff, cleanliness, and superb service a superb rating.  If I am here in the area, would choose this hotel again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r145592451-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>145592451</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>We spent two days beginning of June 2012 in this hotel. We experienced a failure in the hotel water system, leaving us (and all customers) without water during hours, and without information by the hotel staff.End of June, we spent again two days in this hotel. Again, we experienced several problems: there was a leak in the water system, the air conditioning wasn't not working correctly, all ice machines were out of order... and the hotel staff was not helpful to resolve these issues.Should you need to stay in Denver, let's choose another hotel.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r144413432-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>144413432</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>Hospital rates</t>
+  </si>
+  <si>
+    <t>If you're going to U of CO Hospital, Anschutz Medical Campus, ask for their hospital rate, which was $55 for our Oct '12 stay. The motel is under new management and they are renovating the rooms.  The new management, however, doesn't know what an ADA accessible room is.  We checked in, having made a reservation for the accessible room we'd used many times.  Due to renovation this room was not available, but we were assured the room we were given was "accessible".  NOT  There was no raised toilet or grab bars near the toilet.  The staff was accomodating and we were given the key to "our" room so my daughter could use the bathroom in there.  Left a comment card commending the staff, but noting why the room we were given was not "accessible" so management would know.Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>If you're going to U of CO Hospital, Anschutz Medical Campus, ask for their hospital rate, which was $55 for our Oct '12 stay. The motel is under new management and they are renovating the rooms.  The new management, however, doesn't know what an ADA accessible room is.  We checked in, having made a reservation for the accessible room we'd used many times.  Due to renovation this room was not available, but we were assured the room we were given was "accessible".  NOT  There was no raised toilet or grab bars near the toilet.  The staff was accomodating and we were given the key to "our" room so my daughter could use the bathroom in there.  Left a comment card commending the staff, but noting why the room we were given was not "accessible" so management would know.Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r142245136-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>142245136</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Ok to stay for a flight</t>
+  </si>
+  <si>
+    <t>I keep trying different hotels near the airport. The latest had a breakfast a bit above the others, but the bed was too soft and the sheets didn't stay on the bottom. The bathroom was way too small. The van driver was angry at other drivers (which can make you nervous). Overall, I will probably try the other options, but I'd be willing to repeat if they are the least expensive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r136016960-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>136016960</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Okay if you're reeeeeally budget conscious</t>
+  </si>
+  <si>
+    <t>I don't feel that I am high maintenance, I just expect a room that I am paying for to be clean, with hot water and a sense of privacy and quiet.  This Quality Inn is pretty shabby with obvious stains on the carpet and coverlet. I had a lukewarm shower in the evening following a run on their rickety treadmill in the "fitness center" (half the size of a regular room, 1 treadmill, 1 stationary bike, 1 elliptical-type cardio machine). My morning showers were wonderfully hot, though. And they did deliver a microwave and fridge to my room within 20 minutes of arrival once I called the front desk. The AC is very weak, I surprised a cockroach on the first night (but couldn't catch it to show the management) and there's a running joke here apparently that the room keys lose their "charge" after 48 hours - couldn't get into my room my third night but the front desk workers are courteous and used to this. Breakfast is juice, milk, bagels, cereal. Stay here if you're on a budget, tho another $20 a night might get you something more fixed up.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I don't feel that I am high maintenance, I just expect a room that I am paying for to be clean, with hot water and a sense of privacy and quiet.  This Quality Inn is pretty shabby with obvious stains on the carpet and coverlet. I had a lukewarm shower in the evening following a run on their rickety treadmill in the "fitness center" (half the size of a regular room, 1 treadmill, 1 stationary bike, 1 elliptical-type cardio machine). My morning showers were wonderfully hot, though. And they did deliver a microwave and fridge to my room within 20 minutes of arrival once I called the front desk. The AC is very weak, I surprised a cockroach on the first night (but couldn't catch it to show the management) and there's a running joke here apparently that the room keys lose their "charge" after 48 hours - couldn't get into my room my third night but the front desk workers are courteous and used to this. Breakfast is juice, milk, bagels, cereal. Stay here if you're on a budget, tho another $20 a night might get you something more fixed up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r135423820-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>135423820</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>We really stayed here by mistake, thinking it was another hotel in the area that we had used before. The rooms have a penetrating tabaco smell and the carpets are really dirty. Don't really feel safe here. Building is all and needs maintanance urgently</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r135212205-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>135212205</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>This hotel is convenient and easy access to major freeways.   The room was pretty generic, basic 2 beds the pillows were very small and not real comfortable.  The room was clean.  The bad part is the location of the pool and it was dirty.The pool is right behind the Dennys, basically in the parking lot.  There were a couple shady characters watching us from the Denny's parking lot and some shady characters hanging outside our room.There was loud noises from the room upstairs. The breakfast was pretty sad.  If you have young children who want a hotel with a pool do not stay here. We visited the pool once but didn't enter.   If you need a room to just spend one night as you are passing through this hotel will be fine.  If you plan on staying few days find someplace else. The TV also had very limited channels.  When I called to reserve the room I requested a refridgerator, they said I would have to request one when I arrived.  They did not have any available but would put me on the waiting list.  We stayed 3 nights and they never brought us a refridgerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is convenient and easy access to major freeways.   The room was pretty generic, basic 2 beds the pillows were very small and not real comfortable.  The room was clean.  The bad part is the location of the pool and it was dirty.The pool is right behind the Dennys, basically in the parking lot.  There were a couple shady characters watching us from the Denny's parking lot and some shady characters hanging outside our room.There was loud noises from the room upstairs. The breakfast was pretty sad.  If you have young children who want a hotel with a pool do not stay here. We visited the pool once but didn't enter.   If you need a room to just spend one night as you are passing through this hotel will be fine.  If you plan on staying few days find someplace else. The TV also had very limited channels.  When I called to reserve the room I requested a refridgerator, they said I would have to request one when I arrived.  They did not have any available but would put me on the waiting list.  We stayed 3 nights and they never brought us a refridgerator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r134843468-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>134843468</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Nice room, great service</t>
+  </si>
+  <si>
+    <t>Great value for the money we paid, our room was clean, quiet, and our kingsize bed was very comfortable.  We booked through travelousity and when they made the booking they made an error and booked us a smoking room instead of non-smoking.  When I called to confirm just the day before arrival they informed us of the error and even though they were booked up managed to switch us to a non-smoking king room as we requested, what great service!  Breakfast was good, lot's to choose from and even warm eggs and sausage which was unexpected.  There were a couple of restaurants within walking distance and I felt very safe walking from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great value for the money we paid, our room was clean, quiet, and our kingsize bed was very comfortable.  We booked through travelousity and when they made the booking they made an error and booked us a smoking room instead of non-smoking.  When I called to confirm just the day before arrival they informed us of the error and even though they were booked up managed to switch us to a non-smoking king room as we requested, what great service!  Breakfast was good, lot's to choose from and even warm eggs and sausage which was unexpected.  There were a couple of restaurants within walking distance and I felt very safe walking from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r133619443-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>133619443</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>Nice room and very comfortable</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay and found the room (on the south side) to be very quiet and comfortable.  The room was large and clean, with a spacious bathroom.  I never heard a peep from inside or outside.  The AC on this scorchingly hot night worked great.  I walked over to the north side of the complex in search of the ice machine, and it did seem to be more noisy with assorted characters standing outside their rooms, smoking.  At least they weren't smoking inside!  But this is a very reasonably priced inn and sometimes you get all kinds when the price is right.I would stay here again, but I would ask for a room on the south side.MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay and found the room (on the south side) to be very quiet and comfortable.  The room was large and clean, with a spacious bathroom.  I never heard a peep from inside or outside.  The AC on this scorchingly hot night worked great.  I walked over to the north side of the complex in search of the ice machine, and it did seem to be more noisy with assorted characters standing outside their rooms, smoking.  At least they weren't smoking inside!  But this is a very reasonably priced inn and sometimes you get all kinds when the price is right.I would stay here again, but I would ask for a room on the south side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r131790111-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>131790111</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Was pleased with all aspects of this hotel</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here during Memorial Week and we were both very happy with our experience. First of all, the room was decent sized and we had asked for a refrigerator and micro-wave if possible because of health issues (I have hypo-glycemia so often need snacks to take and/or have before bed). We got both.  The bathroom ammentities were nice (gave shampoo, conditioner, lotion, soaps that didn't fall apart after 3 uses and often ear plugs and make up removing pads). Their breakfast was good too. We both have been running into hotels that have ridiculous breakfast hours (8-10am....who waits til 8am to eat breakfast when you are on the road? :o( ) but this hotel offered it from 6-10am. There was the usual cold items of various breads/bagels, sweet rolls/muffins and cereals but they also had apples, hard boiled eggs and yogurt. Then they had hot scrambled egg patties and most mornings sausage patties though a couple days they switched it up for ham or sausage links.  Finally, the staff was friendly and helpful. We arrived late our first night (around 11:15pm) and wanted to get some things at a Walmart or something. The maintenance guy gave us directions and they were all nice in letting my sister print up directions as some days we had to re-arrange our itinerary a bit LOL. I would definitely stay at this hotel again and have rated it all "very...My sister and I stayed here during Memorial Week and we were both very happy with our experience. First of all, the room was decent sized and we had asked for a refrigerator and micro-wave if possible because of health issues (I have hypo-glycemia so often need snacks to take and/or have before bed). We got both.  The bathroom ammentities were nice (gave shampoo, conditioner, lotion, soaps that didn't fall apart after 3 uses and often ear plugs and make up removing pads). Their breakfast was good too. We both have been running into hotels that have ridiculous breakfast hours (8-10am....who waits til 8am to eat breakfast when you are on the road? :o( ) but this hotel offered it from 6-10am. There was the usual cold items of various breads/bagels, sweet rolls/muffins and cereals but they also had apples, hard boiled eggs and yogurt. Then they had hot scrambled egg patties and most mornings sausage patties though a couple days they switched it up for ham or sausage links.  Finally, the staff was friendly and helpful. We arrived late our first night (around 11:15pm) and wanted to get some things at a Walmart or something. The maintenance guy gave us directions and they were all nice in letting my sister print up directions as some days we had to re-arrange our itinerary a bit LOL. I would definitely stay at this hotel again and have rated it all "very good" except the location....and that's only because it's at the very outskirts of Denver so if you are looking for something closer, this wouldn't fit but it's right by expressway so very easy to get to where ever. We spent days in the National Park and also Colorado Springs and didn't have trouble getting around.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here during Memorial Week and we were both very happy with our experience. First of all, the room was decent sized and we had asked for a refrigerator and micro-wave if possible because of health issues (I have hypo-glycemia so often need snacks to take and/or have before bed). We got both.  The bathroom ammentities were nice (gave shampoo, conditioner, lotion, soaps that didn't fall apart after 3 uses and often ear plugs and make up removing pads). Their breakfast was good too. We both have been running into hotels that have ridiculous breakfast hours (8-10am....who waits til 8am to eat breakfast when you are on the road? :o( ) but this hotel offered it from 6-10am. There was the usual cold items of various breads/bagels, sweet rolls/muffins and cereals but they also had apples, hard boiled eggs and yogurt. Then they had hot scrambled egg patties and most mornings sausage patties though a couple days they switched it up for ham or sausage links.  Finally, the staff was friendly and helpful. We arrived late our first night (around 11:15pm) and wanted to get some things at a Walmart or something. The maintenance guy gave us directions and they were all nice in letting my sister print up directions as some days we had to re-arrange our itinerary a bit LOL. I would definitely stay at this hotel again and have rated it all "very...My sister and I stayed here during Memorial Week and we were both very happy with our experience. First of all, the room was decent sized and we had asked for a refrigerator and micro-wave if possible because of health issues (I have hypo-glycemia so often need snacks to take and/or have before bed). We got both.  The bathroom ammentities were nice (gave shampoo, conditioner, lotion, soaps that didn't fall apart after 3 uses and often ear plugs and make up removing pads). Their breakfast was good too. We both have been running into hotels that have ridiculous breakfast hours (8-10am....who waits til 8am to eat breakfast when you are on the road? :o( ) but this hotel offered it from 6-10am. There was the usual cold items of various breads/bagels, sweet rolls/muffins and cereals but they also had apples, hard boiled eggs and yogurt. Then they had hot scrambled egg patties and most mornings sausage patties though a couple days they switched it up for ham or sausage links.  Finally, the staff was friendly and helpful. We arrived late our first night (around 11:15pm) and wanted to get some things at a Walmart or something. The maintenance guy gave us directions and they were all nice in letting my sister print up directions as some days we had to re-arrange our itinerary a bit LOL. I would definitely stay at this hotel again and have rated it all "very good" except the location....and that's only because it's at the very outskirts of Denver so if you are looking for something closer, this wouldn't fit but it's right by expressway so very easy to get to where ever. We spent days in the National Park and also Colorado Springs and didn't have trouble getting around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r125975739-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>125975739</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>I don't feel safe staying there</t>
+  </si>
+  <si>
+    <t>I have stayed at some good Quality Inn and some bad ones but never knew it could be this bad. Terrible neighborhood. Terrible motel. First room I got had a really crusty, dirty, smelly AC that did not work. Second room had a newer AC unit and appeared to be a remodeled room but tie does not make me feel any safer. The feel of the area is just not right for a hotel. It is scary to wander out to eat when it's dark even though there's fast food places nearby. It felt unsafe staying inside the room at night. Get a better peace of mind and go some place else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I have stayed at some good Quality Inn and some bad ones but never knew it could be this bad. Terrible neighborhood. Terrible motel. First room I got had a really crusty, dirty, smelly AC that did not work. Second room had a newer AC unit and appeared to be a remodeled room but tie does not make me feel any safer. The feel of the area is just not right for a hotel. It is scary to wander out to eat when it's dark even though there's fast food places nearby. It felt unsafe staying inside the room at night. Get a better peace of mind and go some place else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r120499791-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>120499791</t>
+  </si>
+  <si>
+    <t>11/12/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I stayed there in october and when i got there i was greeted very warmly by guest services. She had a great smile and was very helpful when we got into a little snag with directions and boarding passes. her name was Ky and we were very happy she helped us out! i hope she is there when we stay again. thanks steve</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r117681423-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>117681423</t>
+  </si>
+  <si>
+    <t>09/04/2011</t>
+  </si>
+  <si>
+    <t>Update of Previous Review.</t>
+  </si>
+  <si>
+    <t>They have installed new Cisco wireless access points throughout the property so wireless should be better for those who have had an issue in the past. Look for them mounted over the walkways - easy to spot since they have all the "normal" lights on them.I've stayed probably an additional 6 or so nights since my original review and not much I can add to it. Great, helpful, friendly, and polite staff. Incredibly good housekeeping staff, better than places 2-3X the price. Maintenance staff tries to keep up and it shows - every little thing I have ever pointed out about my room or the property is always fixed usually while I'm there. But.... the property is old and is wearing out. A partial refurb (not all items need replacing) of the rooms would be nice - and there's evidence that's occurring. You can tell the ownership/management tries hard. I tried the outdoor pool this summer. Nice. Again it's clean and well kept as are the grounds here. Every morning you see staff going around sweeping up the butts, etc. This is a property you will like or dislike, I cannot imagine being neutral on it. You have to try it for yourself.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>They have installed new Cisco wireless access points throughout the property so wireless should be better for those who have had an issue in the past. Look for them mounted over the walkways - easy to spot since they have all the "normal" lights on them.I've stayed probably an additional 6 or so nights since my original review and not much I can add to it. Great, helpful, friendly, and polite staff. Incredibly good housekeeping staff, better than places 2-3X the price. Maintenance staff tries to keep up and it shows - every little thing I have ever pointed out about my room or the property is always fixed usually while I'm there. But.... the property is old and is wearing out. A partial refurb (not all items need replacing) of the rooms would be nice - and there's evidence that's occurring. You can tell the ownership/management tries hard. I tried the outdoor pool this summer. Nice. Again it's clean and well kept as are the grounds here. Every morning you see staff going around sweeping up the butts, etc. This is a property you will like or dislike, I cannot imagine being neutral on it. You have to try it for yourself.More</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r105693720-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>105693720</t>
+  </si>
+  <si>
+    <t>04/26/2011</t>
+  </si>
+  <si>
+    <t>Run away, stay elsewhere</t>
+  </si>
+  <si>
+    <t>So bad, I got a king suite, room smelled musty cologne, wifi didn't work at all though, I could barely connect to the Motel 6 next door. Train came through and rumbled the room(though, they have earplugs with the room).  Shower took 12 minutes to flow hot water first thing in the morning.  At least the bed and sheets where nice, heater worked well, and everything was basically clean other than the stain on the couch seat and a floor with what looks like winter tracking stains. The musty smell made me think of the room recently being used in a porno or something.  Breakfast was meh, nothing really looked safe other than coffee and fruit.  Yogurt top was pressurised out even though it was not expired.  Nieghborhood was shady, I had 3 people chase me down to ask for money just walking to taco bell and back(taco bell even shorted me on food).  Complained to the staff a little and nothing supportive in return. I would have rather stayed at the motel 6 next door instead as the building looked more modern.   Checked out and went to a different hotel after 1night.  For the same price, la quinta provides a bigger, cleaner room, with no funny smell, working wifi, and way better service.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>So bad, I got a king suite, room smelled musty cologne, wifi didn't work at all though, I could barely connect to the Motel 6 next door. Train came through and rumbled the room(though, they have earplugs with the room).  Shower took 12 minutes to flow hot water first thing in the morning.  At least the bed and sheets where nice, heater worked well, and everything was basically clean other than the stain on the couch seat and a floor with what looks like winter tracking stains. The musty smell made me think of the room recently being used in a porno or something.  Breakfast was meh, nothing really looked safe other than coffee and fruit.  Yogurt top was pressurised out even though it was not expired.  Nieghborhood was shady, I had 3 people chase me down to ask for money just walking to taco bell and back(taco bell even shorted me on food).  Complained to the staff a little and nothing supportive in return. I would have rather stayed at the motel 6 next door instead as the building looked more modern.   Checked out and went to a different hotel after 1night.  For the same price, la quinta provides a bigger, cleaner room, with no funny smell, working wifi, and way better service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r95324408-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>95324408</t>
+  </si>
+  <si>
+    <t>02/02/2011</t>
+  </si>
+  <si>
+    <t>Very Nice and Pleasant Stay for the Money</t>
+  </si>
+  <si>
+    <t>Flew into Denver and saw this Hotel on Choice.Com,Was a little sceptical,But was proved otherwise.There is a Denny,s right there,Also had a free continental which helps in the morning. Staff was VERY Helpfull and VERY courteous to my Questions about the surrounding Areas Sights and Attractions.Downtown Denver is about 7 miles or less,Which makes this Hotel very easy to find your way around Denver.I would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r93674695-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>93674695</t>
+  </si>
+  <si>
+    <t>01/18/2011</t>
+  </si>
+  <si>
+    <t>Excellent value for money</t>
+  </si>
+  <si>
+    <t>I liked everything about this motel.  The location was easy in and easy out.  Checkin was friendly and efficient.  The room was one of the cleanest rooms I have every stayed in.  The beds were comfy.  A continental breakfast was offered and it was very good.  The entire area was kept clean and tidy.  The selection was good.  It even had hot sausages and eggs.  The only thing I did not like was the fan on the heater was quite noisy.  Thankfully it was nice and warm and I really didn't need it.  I will stay here again on my next trip.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r72029607-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>72029607</t>
+  </si>
+  <si>
+    <t>07/23/2010</t>
+  </si>
+  <si>
+    <t>Nice people, nice room</t>
+  </si>
+  <si>
+    <t>As the friends I was visiting were having their house remodeled, I stayed here six nights at a total cost of under $400.00.  The room was clean (I only saw two bugs, one deceased and the other breathing its last, indicating a recent visit from the experminator), the staff friendly and the free breakfast adequate, with sausages and eggs in addition to the usual pastries and cereal (if you don't appreciate this, there is a Waffle House and a Denny's nearby and several fast food places just across I-70).  The room was relatively roomy and had a comfortable recliner.  There are about 26 TV channels available.  The main drawback to this property is the location, well east of downtown Denver and, if you care about such things, in a definitely blue collar area.   Also, train whistles at a nearby railroad grade crossing can easily be heard.  The interior of my room--paint and furniture--was showing its age, although I noticed new furniture being delivered to the rooms in another wing of the hotel.  If you insist in only patronizing hotels used by suits on expense accounts, this property is not for you but it has clean, affordable and comfortable accomodations for the rest of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>As the friends I was visiting were having their house remodeled, I stayed here six nights at a total cost of under $400.00.  The room was clean (I only saw two bugs, one deceased and the other breathing its last, indicating a recent visit from the experminator), the staff friendly and the free breakfast adequate, with sausages and eggs in addition to the usual pastries and cereal (if you don't appreciate this, there is a Waffle House and a Denny's nearby and several fast food places just across I-70).  The room was relatively roomy and had a comfortable recliner.  There are about 26 TV channels available.  The main drawback to this property is the location, well east of downtown Denver and, if you care about such things, in a definitely blue collar area.   Also, train whistles at a nearby railroad grade crossing can easily be heard.  The interior of my room--paint and furniture--was showing its age, although I noticed new furniture being delivered to the rooms in another wing of the hotel.  If you insist in only patronizing hotels used by suits on expense accounts, this property is not for you but it has clean, affordable and comfortable accomodations for the rest of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r69281263-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>69281263</t>
+  </si>
+  <si>
+    <t>06/30/2010</t>
+  </si>
+  <si>
+    <t>Overated - very poor wifi</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of days. If a hot breakfast with greasy sausages is your health trip, then you have come to the right place. The picture of the front as shown is correct as when you arrive at the motel it does look very nice but going up the side of the motel to park, it seems you have come to a filthy place. The corridors on the side and the inside ones were dirty with cigarette butts lying around. They promise a wifi but there is hardly any signal. So if you need to be on the net during your stay, you are out of luck. Guests here were doing bbq way into the night and drinking and making a lot of noise but the management did not care. Thankfully it was hot and the A/C was running so we did not suffer much. Houskeeping does do a good job but overall I would look for another place next tripMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of days. If a hot breakfast with greasy sausages is your health trip, then you have come to the right place. The picture of the front as shown is correct as when you arrive at the motel it does look very nice but going up the side of the motel to park, it seems you have come to a filthy place. The corridors on the side and the inside ones were dirty with cigarette butts lying around. They promise a wifi but there is hardly any signal. So if you need to be on the net during your stay, you are out of luck. Guests here were doing bbq way into the night and drinking and making a lot of noise but the management did not care. Thankfully it was hot and the A/C was running so we did not suffer much. Houskeeping does do a good job but overall I would look for another place next tripMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r69130056-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>69130056</t>
+  </si>
+  <si>
+    <t>06/29/2010</t>
+  </si>
+  <si>
+    <t>A nice surprise</t>
+  </si>
+  <si>
+    <t>We stayed here for one night using our Choice Rewards points.  It only took 6000 points which is the lowest amount so didn't know what to expect.  The young girl checking us in was very pleasant and helpful.  We asked if there was an Applebee's nearby and told her we'd prefer to not get back on the freeway because it was backed up.   She looked it up and got the directions for us.  The room was very clean and the bed was very comfortable with nice bedding.  The breakfast also was quite good - it had sausage and eggs along with the usual things.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night using our Choice Rewards points.  It only took 6000 points which is the lowest amount so didn't know what to expect.  The young girl checking us in was very pleasant and helpful.  We asked if there was an Applebee's nearby and told her we'd prefer to not get back on the freeway because it was backed up.   She looked it up and got the directions for us.  The room was very clean and the bed was very comfortable with nice bedding.  The breakfast also was quite good - it had sausage and eggs along with the usual things.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r46957424-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>46957424</t>
+  </si>
+  <si>
+    <t>10/15/2009</t>
+  </si>
+  <si>
+    <t>Ideal for our needs</t>
+  </si>
+  <si>
+    <t>We just required a hotel fairly close to Denver Airport as an overnight stop at the beginning of our road trip. Judging by some of the reviews this place is a tip. It is a Quality Inn close to an Interstate and an industrial estate it is not the Plaza but on the other hand we've stayed in a lot worse. The room was comfortable with nice clean beds and an excellent shower to wash away the dust from a 9 hour flight. Plenty of towels as per usual these were the size of a postage stamp. Buffet breakfast included ( if you want something better there is a "Denny's next door). Don't go to this place for the scenery but as a stop over it is fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>We just required a hotel fairly close to Denver Airport as an overnight stop at the beginning of our road trip. Judging by some of the reviews this place is a tip. It is a Quality Inn close to an Interstate and an industrial estate it is not the Plaza but on the other hand we've stayed in a lot worse. The room was comfortable with nice clean beds and an excellent shower to wash away the dust from a 9 hour flight. Plenty of towels as per usual these were the size of a postage stamp. Buffet breakfast included ( if you want something better there is a "Denny's next door). Don't go to this place for the scenery but as a stop over it is fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r45794354-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>45794354</t>
+  </si>
+  <si>
+    <t>10/04/2009</t>
+  </si>
+  <si>
+    <t>Nasty, terrible Hotel</t>
+  </si>
+  <si>
+    <t>This place has absolutely nothing good about it. I think the owner could not care less about his hotel, but I would be ashamed of everything. Now, if you like drug addicts, dirty rooms with a foul smell to them, and a few drunk hookers, this just might be the place for you.I stayed here against my better judgement. Simply, just be warned to saty anywhere else if you possibly can.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r45654804-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>45654804</t>
+  </si>
+  <si>
+    <t>10/02/2009</t>
+  </si>
+  <si>
+    <t>Excellent Stay Clean Rooms Nice Staff</t>
+  </si>
+  <si>
+    <t>Great Staff Clean Room Excellent Continental Breakfast Can not beat this hotel valueMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>QualityPeoria, Manager at Rodeway Inn, responded to this reviewResponded October 30, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2009</t>
+  </si>
+  <si>
+    <t>Great Staff Clean Room Excellent Continental Breakfast Can not beat this hotel valueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r34967109-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>34967109</t>
+  </si>
+  <si>
+    <t>07/16/2009</t>
+  </si>
+  <si>
+    <t>Reasonably priced and comfortable</t>
+  </si>
+  <si>
+    <t>Stayed for a week visiting friends in the area.  A reasonable hotel with good amentities and comfortable beds.  It is a mid-range hotel that was one of the better places I have stayed.  The rooms were large and comfortable.  The staff was friendly and helpful.  I really appreciated that my dog was allowed. I would recommend this hotel if you are looking for a reasonably priced hotel.  A Denny's and Wendy's were conveniently close as was a gas station with a convenience store.  The entrance was a bit off putting but other wise parking was adqueate.  Don't be surprised by the amount of wildlife living on the grounds.  Small rabbits and a colony of birds give it a parklike atomosphere.The free breakfast was plain but plentiful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Stayed for a week visiting friends in the area.  A reasonable hotel with good amentities and comfortable beds.  It is a mid-range hotel that was one of the better places I have stayed.  The rooms were large and comfortable.  The staff was friendly and helpful.  I really appreciated that my dog was allowed. I would recommend this hotel if you are looking for a reasonably priced hotel.  A Denny's and Wendy's were conveniently close as was a gas station with a convenience store.  The entrance was a bit off putting but other wise parking was adqueate.  Don't be surprised by the amount of wildlife living on the grounds.  Small rabbits and a colony of birds give it a parklike atomosphere.The free breakfast was plain but plentiful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r34874779-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>34874779</t>
+  </si>
+  <si>
+    <t>07/15/2009</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>We stayed here for one night after a late night arrival at the airport before we headed out for a ski weekend. The quality of the furniture was much better and the size of the room was much bigger than I expected. Definitely a cut above the usual "clean, but bare bones" road side motels. It was clean and the staff was nice, but I cannot say we had that much interaction with them.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r17801582-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>17801582</t>
+  </si>
+  <si>
+    <t>07/11/2008</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>While others seemed to have problems with their reservations and were none to pleased, my friend and I stayed for one night on our way to Arizona. The beds were very nice, showers new and clean, and check in and check out were no problem at all. We booked it ahead of time about a week in advance via phone and had no problems. The wireless internet was pretty slow and the breakfast wasn't much to boast about but you get what you pay for with the price. A great stay!</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r8191458-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>8191458</t>
+  </si>
+  <si>
+    <t>07/18/2007</t>
+  </si>
+  <si>
+    <t>Not the Greatest</t>
+  </si>
+  <si>
+    <t>The staff was friendly, however we seemed to have one mishap after another.  Key cards never seemed to work and had to get a new set of key cards made about every other day.  Reservations were also messed up.  I just happen to be getting new key cards made one day and double-checked on our reservations.  The hotel had us (and the rest of our group-9 rooms total) checking out 5 days before we were scheduled to leave.  Thought it was straightened out until we checked again the next day.  They again had our check-out date a totally different date than what we told them.  Also went to the front desk to get change to do laundry in their laundry room and were told we had to go across the street to Denny's to get quarters.  Hotel clerk told us they don't keep change in their cash drawer.  Not a very well managed hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>The staff was friendly, however we seemed to have one mishap after another.  Key cards never seemed to work and had to get a new set of key cards made about every other day.  Reservations were also messed up.  I just happen to be getting new key cards made one day and double-checked on our reservations.  The hotel had us (and the rest of our group-9 rooms total) checking out 5 days before we were scheduled to leave.  Thought it was straightened out until we checked again the next day.  They again had our check-out date a totally different date than what we told them.  Also went to the front desk to get change to do laundry in their laundry room and were told we had to go across the street to Denny's to get quarters.  Hotel clerk told us they don't keep change in their cash drawer.  Not a very well managed hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r5978908-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>5978908</t>
+  </si>
+  <si>
+    <t>10/19/2006</t>
+  </si>
+  <si>
+    <t>The 'UnQuality' Inn</t>
+  </si>
+  <si>
+    <t>Because of a change of travel plans we found ourselves needing a room in Denver for two nights and to my everlasting regret I ended up at Quality Inn Denver.Its a former LaQuinta Inn and is showing its age.  Staff was friendly, but not helpful as we went through one problem after another.We paid for a deluxe room - and the room was spacious, but both the refrigerator and microwave quit working the first day.  We have medicine that has to be stored in a refrigerator.  It took five hours and two trips to the front desk to get someone to come up and look at the problem.  They "fixed" the problem by plugging both into a power strip that was plugged into another outlet.  After they left, the TV stopped working.We had some spooky electrical problems.  Outlets would not work for some time and then start working again.Of the three icemakers on the property, only one was working.  Our electronic door keys quit twice.When I asked to speak to a manager to complain at 8:30 AM, I was told he wouldn't be in for another hour or two.All I got for my complaint was a reduction of 10% of one night's stay.  A letter to the company produced an offer of 15% off my next stay at the hotel.Its a safe bet that I won't be using that offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>Because of a change of travel plans we found ourselves needing a room in Denver for two nights and to my everlasting regret I ended up at Quality Inn Denver.Its a former LaQuinta Inn and is showing its age.  Staff was friendly, but not helpful as we went through one problem after another.We paid for a deluxe room - and the room was spacious, but both the refrigerator and microwave quit working the first day.  We have medicine that has to be stored in a refrigerator.  It took five hours and two trips to the front desk to get someone to come up and look at the problem.  They "fixed" the problem by plugging both into a power strip that was plugged into another outlet.  After they left, the TV stopped working.We had some spooky electrical problems.  Outlets would not work for some time and then start working again.Of the three icemakers on the property, only one was working.  Our electronic door keys quit twice.When I asked to speak to a manager to complain at 8:30 AM, I was told he wouldn't be in for another hour or two.All I got for my complaint was a reduction of 10% of one night's stay.  A letter to the company produced an offer of 15% off my next stay at the hotel.Its a safe bet that I won't be using that offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d85366-r5016335-Rodeway_Inn-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>5016335</t>
+  </si>
+  <si>
+    <t>04/27/2006</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>After staying in Estes Park as a camp counselor for the week, I stayed here before flying out the next day.  My fiance was with me and we stayed in separate rooms.  My room was on the second floor and I liked the semi unique lay out with the sliding bathroom door.  It was nice to have a room to myself again (without campers) and I slept well!  My fiance stayed in a handicapped room (the only room available)  It could have better with scuff marks etc everywhere.  The breakfast was good!The parking was an absolute nightmare!!!!!!!!!!!!  Had to park around back and invent a space illegally just to park for the night.  We left pretty early the next day so we figured no one noticed!It was good for one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>After staying in Estes Park as a camp counselor for the week, I stayed here before flying out the next day.  My fiance was with me and we stayed in separate rooms.  My room was on the second floor and I liked the semi unique lay out with the sliding bathroom door.  It was nice to have a room to myself again (without campers) and I slept well!  My fiance stayed in a handicapped room (the only room available)  It could have better with scuff marks etc everywhere.  The breakfast was good!The parking was an absolute nightmare!!!!!!!!!!!!  Had to park around back and invent a space illegally just to park for the night.  We left pretty early the next day so we figured no one noticed!It was good for one night.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2241,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2273,5491 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>289</v>
+      </c>
+      <c r="J36" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" t="s">
+        <v>291</v>
+      </c>
+      <c r="L36" t="s">
+        <v>292</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>327</v>
+      </c>
+      <c r="J42" t="s">
+        <v>328</v>
+      </c>
+      <c r="K42" t="s">
+        <v>329</v>
+      </c>
+      <c r="L42" t="s">
+        <v>330</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>335</v>
+      </c>
+      <c r="K43" t="s">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s">
+        <v>337</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>145</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>343</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s">
+        <v>105</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s">
+        <v>349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>350</v>
+      </c>
+      <c r="O45" t="s">
+        <v>105</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>353</v>
+      </c>
+      <c r="J46" t="s">
+        <v>354</v>
+      </c>
+      <c r="K46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L46" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>357</v>
+      </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>363</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>371</v>
+      </c>
+      <c r="L49" t="s">
+        <v>372</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" t="s">
+        <v>376</v>
+      </c>
+      <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>387</v>
+      </c>
+      <c r="L52" t="s">
+        <v>388</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+      <c r="K53" t="s">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s">
+        <v>393</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O53" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>398</v>
+      </c>
+      <c r="K54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>394</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>406</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s">
+        <v>419</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>406</v>
+      </c>
+      <c r="O57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>422</v>
+      </c>
+      <c r="J58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s">
+        <v>424</v>
+      </c>
+      <c r="L58" t="s">
+        <v>425</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>426</v>
+      </c>
+      <c r="O58" t="s">
+        <v>85</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s">
+        <v>431</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>432</v>
+      </c>
+      <c r="O59" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>434</v>
+      </c>
+      <c r="J60" t="s">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>438</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>440</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>441</v>
+      </c>
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s">
+        <v>443</v>
+      </c>
+      <c r="L61" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>438</v>
+      </c>
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>446</v>
+      </c>
+      <c r="J62" t="s">
+        <v>447</v>
+      </c>
+      <c r="K62" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" t="s">
+        <v>449</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>450</v>
+      </c>
+      <c r="O62" t="s">
+        <v>105</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>452</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>453</v>
+      </c>
+      <c r="J63" t="s">
+        <v>454</v>
+      </c>
+      <c r="K63" t="s">
+        <v>455</v>
+      </c>
+      <c r="L63" t="s">
+        <v>456</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>457</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>458</v>
+      </c>
+      <c r="J64" t="s">
+        <v>459</v>
+      </c>
+      <c r="K64" t="s">
+        <v>460</v>
+      </c>
+      <c r="L64" t="s">
+        <v>461</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>450</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>463</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>464</v>
+      </c>
+      <c r="J65" t="s">
+        <v>465</v>
+      </c>
+      <c r="K65" t="s">
+        <v>466</v>
+      </c>
+      <c r="L65" t="s">
+        <v>467</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>450</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>469</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>470</v>
+      </c>
+      <c r="J66" t="s">
+        <v>471</v>
+      </c>
+      <c r="K66" t="s">
+        <v>472</v>
+      </c>
+      <c r="L66" t="s">
+        <v>473</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>450</v>
+      </c>
+      <c r="O66" t="s">
+        <v>85</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>475</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>476</v>
+      </c>
+      <c r="J67" t="s">
+        <v>477</v>
+      </c>
+      <c r="K67" t="s">
+        <v>478</v>
+      </c>
+      <c r="L67" t="s">
+        <v>479</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>480</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s">
+        <v>485</v>
+      </c>
+      <c r="L68" t="s">
+        <v>486</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>487</v>
+      </c>
+      <c r="O68" t="s">
+        <v>105</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>489</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>490</v>
+      </c>
+      <c r="J69" t="s">
+        <v>491</v>
+      </c>
+      <c r="K69" t="s">
+        <v>492</v>
+      </c>
+      <c r="L69" t="s">
+        <v>493</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>494</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>496</v>
+      </c>
+      <c r="J70" t="s">
+        <v>497</v>
+      </c>
+      <c r="K70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s">
+        <v>499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>500</v>
+      </c>
+      <c r="O70" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>502</v>
+      </c>
+      <c r="F71" t="s">
+        <v>503</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>504</v>
+      </c>
+      <c r="J71" t="s">
+        <v>505</v>
+      </c>
+      <c r="K71" t="s">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s">
+        <v>507</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>508</v>
+      </c>
+      <c r="O71" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F72" t="s">
+        <v>510</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>511</v>
+      </c>
+      <c r="J72" t="s">
+        <v>512</v>
+      </c>
+      <c r="K72" t="s">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s">
+        <v>514</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>515</v>
+      </c>
+      <c r="O72" t="s">
+        <v>105</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>502</v>
+      </c>
+      <c r="F73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>517</v>
+      </c>
+      <c r="J73" t="s">
+        <v>518</v>
+      </c>
+      <c r="K73" t="s">
+        <v>519</v>
+      </c>
+      <c r="L73" t="s">
+        <v>520</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>521</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>523</v>
+      </c>
+      <c r="J74" t="s">
+        <v>524</v>
+      </c>
+      <c r="K74" t="s">
+        <v>525</v>
+      </c>
+      <c r="L74" t="s">
+        <v>526</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>527</v>
+      </c>
+      <c r="O74" t="s">
+        <v>105</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>502</v>
+      </c>
+      <c r="F75" t="s">
+        <v>529</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>530</v>
+      </c>
+      <c r="J75" t="s">
+        <v>531</v>
+      </c>
+      <c r="K75" t="s">
+        <v>532</v>
+      </c>
+      <c r="L75" t="s">
+        <v>533</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>534</v>
+      </c>
+      <c r="O75" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>502</v>
+      </c>
+      <c r="F76" t="s">
+        <v>536</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" t="s">
+        <v>538</v>
+      </c>
+      <c r="K76" t="s">
+        <v>539</v>
+      </c>
+      <c r="L76" t="s">
+        <v>540</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>534</v>
+      </c>
+      <c r="O76" t="s">
+        <v>78</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>502</v>
+      </c>
+      <c r="F77" t="s">
+        <v>542</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>543</v>
+      </c>
+      <c r="J77" t="s">
+        <v>544</v>
+      </c>
+      <c r="K77" t="s">
+        <v>545</v>
+      </c>
+      <c r="L77" t="s">
+        <v>546</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>547</v>
+      </c>
+      <c r="O77" t="s">
+        <v>78</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>502</v>
+      </c>
+      <c r="F78" t="s">
+        <v>549</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>550</v>
+      </c>
+      <c r="J78" t="s">
+        <v>551</v>
+      </c>
+      <c r="K78" t="s">
+        <v>552</v>
+      </c>
+      <c r="L78" t="s">
+        <v>553</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>547</v>
+      </c>
+      <c r="O78" t="s">
+        <v>85</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>502</v>
+      </c>
+      <c r="F79" t="s">
+        <v>554</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>555</v>
+      </c>
+      <c r="J79" t="s">
+        <v>556</v>
+      </c>
+      <c r="K79" t="s">
+        <v>557</v>
+      </c>
+      <c r="L79" t="s">
+        <v>558</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>559</v>
+      </c>
+      <c r="O79" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>560</v>
+      </c>
+      <c r="X79" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>502</v>
+      </c>
+      <c r="F80" t="s">
+        <v>563</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>564</v>
+      </c>
+      <c r="J80" t="s">
+        <v>565</v>
+      </c>
+      <c r="K80" t="s">
+        <v>566</v>
+      </c>
+      <c r="L80" t="s">
+        <v>567</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>568</v>
+      </c>
+      <c r="O80" t="s">
+        <v>105</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>502</v>
+      </c>
+      <c r="F81" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>571</v>
+      </c>
+      <c r="J81" t="s">
+        <v>572</v>
+      </c>
+      <c r="K81" t="s">
+        <v>573</v>
+      </c>
+      <c r="L81" t="s">
+        <v>574</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>575</v>
+      </c>
+      <c r="O81" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>502</v>
+      </c>
+      <c r="F82" t="s">
+        <v>576</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>577</v>
+      </c>
+      <c r="J82" t="s">
+        <v>578</v>
+      </c>
+      <c r="K82" t="s">
+        <v>579</v>
+      </c>
+      <c r="L82" t="s">
+        <v>580</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>581</v>
+      </c>
+      <c r="O82" t="s">
+        <v>145</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>502</v>
+      </c>
+      <c r="F83" t="s">
+        <v>582</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>583</v>
+      </c>
+      <c r="J83" t="s">
+        <v>584</v>
+      </c>
+      <c r="K83" t="s">
+        <v>585</v>
+      </c>
+      <c r="L83" t="s">
+        <v>586</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>587</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>502</v>
+      </c>
+      <c r="F84" t="s">
+        <v>589</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>590</v>
+      </c>
+      <c r="J84" t="s">
+        <v>591</v>
+      </c>
+      <c r="K84" t="s">
+        <v>592</v>
+      </c>
+      <c r="L84" t="s">
+        <v>593</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>594</v>
+      </c>
+      <c r="O84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>502</v>
+      </c>
+      <c r="F85" t="s">
+        <v>596</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>597</v>
+      </c>
+      <c r="J85" t="s">
+        <v>598</v>
+      </c>
+      <c r="K85" t="s">
+        <v>599</v>
+      </c>
+      <c r="L85" t="s">
+        <v>600</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
